--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97470871680521</v>
+        <v>20.97470871680519</v>
       </c>
       <c r="C2">
-        <v>19.26418862379089</v>
+        <v>19.26418862379072</v>
       </c>
       <c r="D2">
-        <v>2.67191817932676</v>
+        <v>2.671918179326879</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.21046105636837</v>
+        <v>40.21046105636839</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>24.57777273026978</v>
+        <v>24.5777727302698</v>
       </c>
       <c r="I2">
-        <v>10.37248054180041</v>
+        <v>10.37248054180038</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.73523524092354</v>
+        <v>19.73523524092352</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49444192673751</v>
+        <v>19.49444192673762</v>
       </c>
       <c r="C3">
         <v>17.86811673108292</v>
       </c>
       <c r="D3">
-        <v>2.716842723445405</v>
+        <v>2.716842723445599</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.98962763623268</v>
+        <v>37.98962763623275</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.60374305072194</v>
+        <v>23.60374305072198</v>
       </c>
       <c r="I3">
-        <v>9.923873652327714</v>
+        <v>9.923873652327742</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.32880806093648</v>
+        <v>18.32880806093651</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54018887817787</v>
+        <v>18.54018887817783</v>
       </c>
       <c r="C4">
-        <v>16.97035676057177</v>
+        <v>16.97035676057171</v>
       </c>
       <c r="D4">
-        <v>2.744301171395666</v>
+        <v>2.744301171395737</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.61059804437637</v>
+        <v>36.61059804437641</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.01459484336562</v>
+        <v>23.01459484336566</v>
       </c>
       <c r="I4">
-        <v>9.651986090940818</v>
+        <v>9.651986090940799</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13969166862831</v>
+        <v>18.13969166862836</v>
       </c>
       <c r="C5">
-        <v>16.59406598261571</v>
+        <v>16.59406598261587</v>
       </c>
       <c r="D5">
-        <v>2.755472542754712</v>
+        <v>2.755472542754578</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.04508379139178</v>
+        <v>36.04508379139168</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.7768154620659</v>
+        <v>22.77681546206584</v>
       </c>
       <c r="I5">
-        <v>9.542107921170867</v>
+        <v>9.542107921170908</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.04643490263029</v>
+        <v>17.04643490263028</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>18.07248066426182</v>
       </c>
       <c r="C6">
-        <v>16.53094543132809</v>
+        <v>16.53094543132814</v>
       </c>
       <c r="D6">
-        <v>2.757326814112806</v>
+        <v>2.757326814112608</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.95097878213699</v>
+        <v>35.95097878213704</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.73747396022258</v>
+        <v>22.73747396022256</v>
       </c>
       <c r="I6">
-        <v>9.523919275231266</v>
+        <v>9.523919275231234</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53483501244976</v>
+        <v>18.53483501244968</v>
       </c>
       <c r="C7">
-        <v>16.96532457949042</v>
+        <v>16.96532457949039</v>
       </c>
       <c r="D7">
-        <v>2.744451889070769</v>
+        <v>2.744451889070894</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.60298514405976</v>
+        <v>36.60298514405974</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.01137863393628</v>
+        <v>23.01137863393629</v>
       </c>
       <c r="I7">
-        <v>9.650500471424511</v>
+        <v>9.65050047142452</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.42000298843395</v>
+        <v>17.42000298843392</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47358719560493</v>
+        <v>20.4735871956049</v>
       </c>
       <c r="C8">
-        <v>18.79108837285767</v>
+        <v>18.79108837285762</v>
       </c>
       <c r="D8">
-        <v>2.68744257580818</v>
+        <v>2.687442575808317</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.44807202032017</v>
+        <v>39.44807202032026</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24.24010389094332</v>
+        <v>24.24010389094342</v>
       </c>
       <c r="I8">
-        <v>10.21706895776835</v>
+        <v>10.21706895776836</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.2584858973626</v>
+        <v>19.25848589736258</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>23.92668812688796</v>
       </c>
       <c r="C9">
-        <v>22.06178100234121</v>
+        <v>22.06178100234122</v>
       </c>
       <c r="D9">
-        <v>2.573988260313944</v>
+        <v>2.573988260314005</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.89853099840359</v>
+        <v>44.89853099840354</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>26.71999545794064</v>
       </c>
       <c r="I9">
-        <v>11.35676800683223</v>
+        <v>11.35676800683221</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.55722014940691</v>
+        <v>22.55722014940694</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26846672885522</v>
+        <v>26.2684667288552</v>
       </c>
       <c r="C10">
-        <v>24.2952391614593</v>
+        <v>24.2952391614594</v>
       </c>
       <c r="D10">
-        <v>2.488597288611702</v>
+        <v>2.488597288611629</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.82861009255478</v>
+        <v>48.82861009255484</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28.58911768762505</v>
+        <v>28.58911768762508</v>
       </c>
       <c r="I10">
         <v>12.21483683874543</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.81353083864799</v>
+        <v>24.81353083864797</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.29593578125171</v>
+        <v>27.29593578125191</v>
       </c>
       <c r="C11">
         <v>25.2795252666342</v>
       </c>
       <c r="D11">
-        <v>2.449051746445469</v>
+        <v>2.449051746445484</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.60500551947474</v>
+        <v>50.60500551947502</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>29.45219206598754</v>
+        <v>29.45219206598769</v>
       </c>
       <c r="I11">
-        <v>12.61130724081616</v>
+        <v>12.61130724081622</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.80884513785219</v>
+        <v>25.80884513785232</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.6800147703016</v>
+        <v>27.68001477030175</v>
       </c>
       <c r="C12">
-        <v>25.64818242001425</v>
+        <v>25.6481824200144</v>
       </c>
       <c r="D12">
-        <v>2.433952234695446</v>
+        <v>2.433952234695214</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.27669101847738</v>
+        <v>51.27669101847763</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.78119663435848</v>
+        <v>29.7811966343586</v>
       </c>
       <c r="I12">
-        <v>12.76252914466493</v>
+        <v>12.76252914466499</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.18178632084929</v>
+        <v>26.18178632084938</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.59751123793946</v>
+        <v>27.59751123793965</v>
       </c>
       <c r="C13">
-        <v>25.56895787736001</v>
+        <v>25.56895787736024</v>
       </c>
       <c r="D13">
-        <v>2.437210123582513</v>
+        <v>2.437210123582438</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.13206310899295</v>
+        <v>51.13206310899299</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29.71023612388693</v>
+        <v>29.71023612388686</v>
       </c>
       <c r="I13">
-        <v>12.72990843845997</v>
+        <v>12.72990843846</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.10163401684426</v>
+        <v>26.10163401684433</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.32763168123749</v>
+        <v>27.3276316812375</v>
       </c>
       <c r="C14">
-        <v>25.30993339979347</v>
+        <v>25.30993339979361</v>
       </c>
       <c r="D14">
-        <v>2.447812139389065</v>
+        <v>2.447812139389193</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.66028094969944</v>
+        <v>50.66028094969946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29.47921347845951</v>
+        <v>29.47921347845952</v>
       </c>
       <c r="I14">
-        <v>12.62372514755103</v>
+        <v>12.62372514755102</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.83960344460663</v>
+        <v>25.83960344460669</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.16168545421714</v>
+        <v>27.16168545421713</v>
       </c>
       <c r="C15">
-        <v>25.15075922296133</v>
+        <v>25.15075922296123</v>
       </c>
       <c r="D15">
-        <v>2.454289226169867</v>
+        <v>2.454289226169931</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.37119400473039</v>
+        <v>50.37119400473029</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29.33800099776088</v>
+        <v>29.33800099776086</v>
       </c>
       <c r="I15">
-        <v>12.55883366073176</v>
+        <v>12.55883366073175</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20059409711336</v>
+        <v>26.20059409711339</v>
       </c>
       <c r="C16">
-        <v>24.23031564857191</v>
+        <v>24.23031564857206</v>
       </c>
       <c r="D16">
-        <v>2.491165608693206</v>
+        <v>2.491165608693339</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.7123386972743</v>
+        <v>48.71233869727452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28.53299739089857</v>
+        <v>28.53299739089874</v>
       </c>
       <c r="I16">
-        <v>12.18906599184647</v>
+        <v>12.18906599184651</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.74790067941406</v>
+        <v>24.74790067941411</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.6016006280155</v>
+        <v>25.60160062801558</v>
       </c>
       <c r="C17">
-        <v>23.65785419809261</v>
+        <v>23.65785419809266</v>
       </c>
       <c r="D17">
-        <v>2.513592459965699</v>
+        <v>2.51359245996569</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.69214877486149</v>
+        <v>47.69214877486145</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.04263510994023</v>
+        <v>28.04263510994015</v>
       </c>
       <c r="I17">
-        <v>11.96392144268562</v>
+        <v>11.96392144268564</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.16931872349926</v>
+        <v>24.16931872349931</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25348621797949</v>
+        <v>25.25348621797959</v>
       </c>
       <c r="C18">
         <v>23.32556992900344</v>
       </c>
       <c r="D18">
-        <v>2.526427388802756</v>
+        <v>2.526427388802628</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.10423618134186</v>
+        <v>47.104236181342</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.7617699044884</v>
+        <v>27.76176990448847</v>
       </c>
       <c r="I18">
-        <v>11.8349852978928</v>
+        <v>11.83498529789284</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.83357236844146</v>
+        <v>23.83357236844152</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13499193210984</v>
+        <v>25.13499193210976</v>
       </c>
       <c r="C19">
-        <v>23.21253180221418</v>
+        <v>23.21253180221428</v>
       </c>
       <c r="D19">
-        <v>2.530762698234573</v>
+        <v>2.530762698234633</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.90496963600541</v>
+        <v>46.90496963600533</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27.66686778752537</v>
+        <v>27.66686778752534</v>
       </c>
       <c r="I19">
-        <v>11.79142089730407</v>
+        <v>11.79142089730405</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.71937160256797</v>
+        <v>23.71937160256799</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.66573301584503</v>
+        <v>25.66573301584495</v>
       </c>
       <c r="C20">
         <v>23.71910289275427</v>
       </c>
       <c r="D20">
-        <v>2.511211913059997</v>
+        <v>2.511211913059928</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.80086235327747</v>
+        <v>47.80086235327749</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28.09471101284087</v>
+        <v>28.09471101284088</v>
       </c>
       <c r="I20">
-        <v>11.98782912041498</v>
+        <v>11.98782912041497</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.23121281768884</v>
+        <v>24.23121281768877</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.40703376548382</v>
+        <v>27.40703376548389</v>
       </c>
       <c r="C21">
-        <v>25.38612133737214</v>
+        <v>25.38612133737222</v>
       </c>
       <c r="D21">
-        <v>2.444701649223409</v>
+        <v>2.44470164922335</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.79887557091561</v>
+        <v>50.79887557091578</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29.54700805992033</v>
+        <v>29.54700805992039</v>
       </c>
       <c r="I21">
-        <v>12.65488226953729</v>
+        <v>12.6548822695373</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.91667125853627</v>
+        <v>25.91667125853628</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.51617756124582</v>
+        <v>28.51617756124574</v>
       </c>
       <c r="C22">
-        <v>26.45217561612386</v>
+        <v>26.4521756161241</v>
       </c>
       <c r="D22">
-        <v>2.400495092138869</v>
+        <v>2.400495092138828</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.83244074133597</v>
+        <v>52.83244074133619</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.50910557820076</v>
+        <v>30.5091055782009</v>
       </c>
       <c r="I22">
-        <v>13.13600264896547</v>
+        <v>13.1360026489655</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.99541745467848</v>
+        <v>26.9954174546785</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.92668806443693</v>
+        <v>27.92668806443699</v>
       </c>
       <c r="C23">
-        <v>25.88516328760785</v>
+        <v>25.88516328760793</v>
       </c>
       <c r="D23">
-        <v>2.4241649717388</v>
+        <v>2.424164971738737</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.72583417644192</v>
+        <v>51.72583417644184</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.99428826147922</v>
+        <v>29.99428826147915</v>
       </c>
       <c r="I23">
         <v>12.86050484112353</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.42156574901523</v>
+        <v>26.42156574901527</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.63675046043509</v>
+        <v>25.63675046043503</v>
       </c>
       <c r="C24">
-        <v>23.69142226317033</v>
+        <v>23.6914222631704</v>
       </c>
       <c r="D24">
-        <v>2.512288338995782</v>
+        <v>2.512288338995776</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.75171732529272</v>
+        <v>47.75171732529259</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.07116424850989</v>
+        <v>28.0711642485098</v>
       </c>
       <c r="I24">
-        <v>11.97701890880547</v>
+        <v>11.97701890880544</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.20324022763957</v>
+        <v>24.20324022763955</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02819592224303</v>
+        <v>23.02819592224308</v>
       </c>
       <c r="C25">
-        <v>21.20827331913907</v>
+        <v>21.20827331913915</v>
       </c>
       <c r="D25">
-        <v>2.604957976871576</v>
+        <v>2.604957976871581</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.43803846971221</v>
+        <v>43.4380384697124</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.0413997407769</v>
+        <v>26.04139974077697</v>
       </c>
       <c r="I25">
-        <v>11.04518851729062</v>
+        <v>11.04518851729065</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.69576842527858</v>
+        <v>21.69576842527855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97470871680519</v>
+        <v>20.97470871680521</v>
       </c>
       <c r="C2">
-        <v>19.26418862379072</v>
+        <v>19.26418862379089</v>
       </c>
       <c r="D2">
-        <v>2.671918179326879</v>
+        <v>2.67191817932676</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.21046105636839</v>
+        <v>40.21046105636837</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>24.5777727302698</v>
+        <v>24.57777273026978</v>
       </c>
       <c r="I2">
-        <v>10.37248054180038</v>
+        <v>10.37248054180041</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.73523524092352</v>
+        <v>19.73523524092354</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49444192673762</v>
+        <v>19.49444192673751</v>
       </c>
       <c r="C3">
         <v>17.86811673108292</v>
       </c>
       <c r="D3">
-        <v>2.716842723445599</v>
+        <v>2.716842723445405</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.98962763623275</v>
+        <v>37.98962763623268</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.60374305072198</v>
+        <v>23.60374305072194</v>
       </c>
       <c r="I3">
-        <v>9.923873652327742</v>
+        <v>9.923873652327714</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.32880806093651</v>
+        <v>18.32880806093648</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54018887817783</v>
+        <v>18.54018887817787</v>
       </c>
       <c r="C4">
-        <v>16.97035676057171</v>
+        <v>16.97035676057177</v>
       </c>
       <c r="D4">
-        <v>2.744301171395737</v>
+        <v>2.744301171395666</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.61059804437641</v>
+        <v>36.61059804437637</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.01459484336566</v>
+        <v>23.01459484336562</v>
       </c>
       <c r="I4">
-        <v>9.651986090940799</v>
+        <v>9.651986090940818</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13969166862836</v>
+        <v>18.13969166862831</v>
       </c>
       <c r="C5">
-        <v>16.59406598261587</v>
+        <v>16.59406598261571</v>
       </c>
       <c r="D5">
-        <v>2.755472542754578</v>
+        <v>2.755472542754712</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.04508379139168</v>
+        <v>36.04508379139178</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.77681546206584</v>
+        <v>22.7768154620659</v>
       </c>
       <c r="I5">
-        <v>9.542107921170908</v>
+        <v>9.542107921170867</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.04643490263028</v>
+        <v>17.04643490263029</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>18.07248066426182</v>
       </c>
       <c r="C6">
-        <v>16.53094543132814</v>
+        <v>16.53094543132809</v>
       </c>
       <c r="D6">
-        <v>2.757326814112608</v>
+        <v>2.757326814112806</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.95097878213704</v>
+        <v>35.95097878213699</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.73747396022256</v>
+        <v>22.73747396022258</v>
       </c>
       <c r="I6">
-        <v>9.523919275231234</v>
+        <v>9.523919275231266</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53483501244968</v>
+        <v>18.53483501244976</v>
       </c>
       <c r="C7">
-        <v>16.96532457949039</v>
+        <v>16.96532457949042</v>
       </c>
       <c r="D7">
-        <v>2.744451889070894</v>
+        <v>2.744451889070769</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.60298514405974</v>
+        <v>36.60298514405976</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.01137863393629</v>
+        <v>23.01137863393628</v>
       </c>
       <c r="I7">
-        <v>9.65050047142452</v>
+        <v>9.650500471424511</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.42000298843392</v>
+        <v>17.42000298843395</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.4735871956049</v>
+        <v>20.47358719560493</v>
       </c>
       <c r="C8">
-        <v>18.79108837285762</v>
+        <v>18.79108837285767</v>
       </c>
       <c r="D8">
-        <v>2.687442575808317</v>
+        <v>2.68744257580818</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.44807202032026</v>
+        <v>39.44807202032017</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24.24010389094342</v>
+        <v>24.24010389094332</v>
       </c>
       <c r="I8">
-        <v>10.21706895776836</v>
+        <v>10.21706895776835</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.25848589736258</v>
+        <v>19.2584858973626</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>23.92668812688796</v>
       </c>
       <c r="C9">
-        <v>22.06178100234122</v>
+        <v>22.06178100234121</v>
       </c>
       <c r="D9">
-        <v>2.573988260314005</v>
+        <v>2.573988260313944</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.89853099840354</v>
+        <v>44.89853099840359</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>26.71999545794064</v>
       </c>
       <c r="I9">
-        <v>11.35676800683221</v>
+        <v>11.35676800683223</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.55722014940694</v>
+        <v>22.55722014940691</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.2684667288552</v>
+        <v>26.26846672885522</v>
       </c>
       <c r="C10">
-        <v>24.2952391614594</v>
+        <v>24.2952391614593</v>
       </c>
       <c r="D10">
-        <v>2.488597288611629</v>
+        <v>2.488597288611702</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.82861009255484</v>
+        <v>48.82861009255478</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28.58911768762508</v>
+        <v>28.58911768762505</v>
       </c>
       <c r="I10">
         <v>12.21483683874543</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.81353083864797</v>
+        <v>24.81353083864799</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.29593578125191</v>
+        <v>27.29593578125171</v>
       </c>
       <c r="C11">
         <v>25.2795252666342</v>
       </c>
       <c r="D11">
-        <v>2.449051746445484</v>
+        <v>2.449051746445469</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.60500551947502</v>
+        <v>50.60500551947474</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>29.45219206598769</v>
+        <v>29.45219206598754</v>
       </c>
       <c r="I11">
-        <v>12.61130724081622</v>
+        <v>12.61130724081616</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.80884513785232</v>
+        <v>25.80884513785219</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.68001477030175</v>
+        <v>27.6800147703016</v>
       </c>
       <c r="C12">
-        <v>25.6481824200144</v>
+        <v>25.64818242001425</v>
       </c>
       <c r="D12">
-        <v>2.433952234695214</v>
+        <v>2.433952234695446</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.27669101847763</v>
+        <v>51.27669101847738</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.7811966343586</v>
+        <v>29.78119663435848</v>
       </c>
       <c r="I12">
-        <v>12.76252914466499</v>
+        <v>12.76252914466493</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.18178632084938</v>
+        <v>26.18178632084929</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.59751123793965</v>
+        <v>27.59751123793946</v>
       </c>
       <c r="C13">
-        <v>25.56895787736024</v>
+        <v>25.56895787736001</v>
       </c>
       <c r="D13">
-        <v>2.437210123582438</v>
+        <v>2.437210123582513</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.13206310899299</v>
+        <v>51.13206310899295</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29.71023612388686</v>
+        <v>29.71023612388693</v>
       </c>
       <c r="I13">
-        <v>12.72990843846</v>
+        <v>12.72990843845997</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.10163401684433</v>
+        <v>26.10163401684426</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.3276316812375</v>
+        <v>27.32763168123749</v>
       </c>
       <c r="C14">
-        <v>25.30993339979361</v>
+        <v>25.30993339979347</v>
       </c>
       <c r="D14">
-        <v>2.447812139389193</v>
+        <v>2.447812139389065</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.66028094969946</v>
+        <v>50.66028094969944</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29.47921347845952</v>
+        <v>29.47921347845951</v>
       </c>
       <c r="I14">
-        <v>12.62372514755102</v>
+        <v>12.62372514755103</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.83960344460669</v>
+        <v>25.83960344460663</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.16168545421713</v>
+        <v>27.16168545421714</v>
       </c>
       <c r="C15">
-        <v>25.15075922296123</v>
+        <v>25.15075922296133</v>
       </c>
       <c r="D15">
-        <v>2.454289226169931</v>
+        <v>2.454289226169867</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.37119400473029</v>
+        <v>50.37119400473039</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29.33800099776086</v>
+        <v>29.33800099776088</v>
       </c>
       <c r="I15">
-        <v>12.55883366073175</v>
+        <v>12.55883366073176</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20059409711339</v>
+        <v>26.20059409711336</v>
       </c>
       <c r="C16">
-        <v>24.23031564857206</v>
+        <v>24.23031564857191</v>
       </c>
       <c r="D16">
-        <v>2.491165608693339</v>
+        <v>2.491165608693206</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.71233869727452</v>
+        <v>48.7123386972743</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28.53299739089874</v>
+        <v>28.53299739089857</v>
       </c>
       <c r="I16">
-        <v>12.18906599184651</v>
+        <v>12.18906599184647</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.74790067941411</v>
+        <v>24.74790067941406</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.60160062801558</v>
+        <v>25.6016006280155</v>
       </c>
       <c r="C17">
-        <v>23.65785419809266</v>
+        <v>23.65785419809261</v>
       </c>
       <c r="D17">
-        <v>2.51359245996569</v>
+        <v>2.513592459965699</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.69214877486145</v>
+        <v>47.69214877486149</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.04263510994015</v>
+        <v>28.04263510994023</v>
       </c>
       <c r="I17">
-        <v>11.96392144268564</v>
+        <v>11.96392144268562</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.16931872349931</v>
+        <v>24.16931872349926</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25348621797959</v>
+        <v>25.25348621797949</v>
       </c>
       <c r="C18">
         <v>23.32556992900344</v>
       </c>
       <c r="D18">
-        <v>2.526427388802628</v>
+        <v>2.526427388802756</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.104236181342</v>
+        <v>47.10423618134186</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.76176990448847</v>
+        <v>27.7617699044884</v>
       </c>
       <c r="I18">
-        <v>11.83498529789284</v>
+        <v>11.8349852978928</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.83357236844152</v>
+        <v>23.83357236844146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13499193210976</v>
+        <v>25.13499193210984</v>
       </c>
       <c r="C19">
-        <v>23.21253180221428</v>
+        <v>23.21253180221418</v>
       </c>
       <c r="D19">
-        <v>2.530762698234633</v>
+        <v>2.530762698234573</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.90496963600533</v>
+        <v>46.90496963600541</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27.66686778752534</v>
+        <v>27.66686778752537</v>
       </c>
       <c r="I19">
-        <v>11.79142089730405</v>
+        <v>11.79142089730407</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.71937160256799</v>
+        <v>23.71937160256797</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.66573301584495</v>
+        <v>25.66573301584503</v>
       </c>
       <c r="C20">
         <v>23.71910289275427</v>
       </c>
       <c r="D20">
-        <v>2.511211913059928</v>
+        <v>2.511211913059997</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.80086235327749</v>
+        <v>47.80086235327747</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28.09471101284088</v>
+        <v>28.09471101284087</v>
       </c>
       <c r="I20">
-        <v>11.98782912041497</v>
+        <v>11.98782912041498</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.23121281768877</v>
+        <v>24.23121281768884</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.40703376548389</v>
+        <v>27.40703376548382</v>
       </c>
       <c r="C21">
-        <v>25.38612133737222</v>
+        <v>25.38612133737214</v>
       </c>
       <c r="D21">
-        <v>2.44470164922335</v>
+        <v>2.444701649223409</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.79887557091578</v>
+        <v>50.79887557091561</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29.54700805992039</v>
+        <v>29.54700805992033</v>
       </c>
       <c r="I21">
-        <v>12.6548822695373</v>
+        <v>12.65488226953729</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.91667125853628</v>
+        <v>25.91667125853627</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.51617756124574</v>
+        <v>28.51617756124582</v>
       </c>
       <c r="C22">
-        <v>26.4521756161241</v>
+        <v>26.45217561612386</v>
       </c>
       <c r="D22">
-        <v>2.400495092138828</v>
+        <v>2.400495092138869</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.83244074133619</v>
+        <v>52.83244074133597</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.5091055782009</v>
+        <v>30.50910557820076</v>
       </c>
       <c r="I22">
-        <v>13.1360026489655</v>
+        <v>13.13600264896547</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.9954174546785</v>
+        <v>26.99541745467848</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.92668806443699</v>
+        <v>27.92668806443693</v>
       </c>
       <c r="C23">
-        <v>25.88516328760793</v>
+        <v>25.88516328760785</v>
       </c>
       <c r="D23">
-        <v>2.424164971738737</v>
+        <v>2.4241649717388</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.72583417644184</v>
+        <v>51.72583417644192</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.99428826147915</v>
+        <v>29.99428826147922</v>
       </c>
       <c r="I23">
         <v>12.86050484112353</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.42156574901527</v>
+        <v>26.42156574901523</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.63675046043503</v>
+        <v>25.63675046043509</v>
       </c>
       <c r="C24">
-        <v>23.6914222631704</v>
+        <v>23.69142226317033</v>
       </c>
       <c r="D24">
-        <v>2.512288338995776</v>
+        <v>2.512288338995782</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.75171732529259</v>
+        <v>47.75171732529272</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.0711642485098</v>
+        <v>28.07116424850989</v>
       </c>
       <c r="I24">
-        <v>11.97701890880544</v>
+        <v>11.97701890880547</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.20324022763955</v>
+        <v>24.20324022763957</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02819592224308</v>
+        <v>23.02819592224303</v>
       </c>
       <c r="C25">
-        <v>21.20827331913915</v>
+        <v>21.20827331913907</v>
       </c>
       <c r="D25">
-        <v>2.604957976871581</v>
+        <v>2.604957976871576</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.4380384697124</v>
+        <v>43.43803846971221</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.04139974077697</v>
+        <v>26.0413997407769</v>
       </c>
       <c r="I25">
-        <v>11.04518851729065</v>
+        <v>11.04518851729062</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.69576842527855</v>
+        <v>21.69576842527858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97470871680521</v>
+        <v>20.85535161489655</v>
       </c>
       <c r="C2">
-        <v>19.26418862379089</v>
+        <v>19.12796863461809</v>
       </c>
       <c r="D2">
-        <v>2.67191817932676</v>
+        <v>2.834639278995882</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.21046105636837</v>
+        <v>40.32655830007998</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.053081585955955</v>
       </c>
       <c r="H2">
-        <v>24.57777273026978</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.37248054180041</v>
+        <v>24.73054269885504</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.3312512483246</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.73523524092354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.67226958821581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49444192673751</v>
+        <v>19.37868893321981</v>
       </c>
       <c r="C3">
-        <v>17.86811673108292</v>
+        <v>17.73764317934763</v>
       </c>
       <c r="D3">
-        <v>2.716842723445405</v>
+        <v>2.880404248051204</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.98962763623268</v>
+        <v>38.14322183854564</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.065352864870825</v>
       </c>
       <c r="H3">
-        <v>23.60374305072194</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.923873652327714</v>
+        <v>23.78022030575876</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.879667214547974</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.32880806093648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18.26880103673025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54018887817787</v>
+        <v>18.42664540303951</v>
       </c>
       <c r="C4">
-        <v>16.97035676057177</v>
+        <v>16.84355543706408</v>
       </c>
       <c r="D4">
-        <v>2.744301171395666</v>
+        <v>2.908378935131087</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.61059804437637</v>
+        <v>36.78937401441956</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.073019871391701</v>
       </c>
       <c r="H4">
-        <v>23.01459484336562</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.651986090940818</v>
+        <v>23.20646573260754</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.605712384800533</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.42506713862243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>17.36685535111106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13969166862831</v>
+        <v>18.02704847524315</v>
       </c>
       <c r="C5">
-        <v>16.59406598261571</v>
+        <v>16.46880168018232</v>
       </c>
       <c r="D5">
-        <v>2.755472542754712</v>
+        <v>2.919761481484437</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.04508379139178</v>
+        <v>36.23467081242497</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.076181446148247</v>
       </c>
       <c r="H5">
-        <v>22.7768154620659</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.542107921170867</v>
+        <v>22.97515853902481</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.49493506664969</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.04643490263029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.98895066096131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07248066426182</v>
+        <v>17.95998696408211</v>
       </c>
       <c r="C6">
-        <v>16.53094543132809</v>
+        <v>16.40593892823784</v>
       </c>
       <c r="D6">
-        <v>2.757326814112806</v>
+        <v>2.921650886582047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.95097878213699</v>
+        <v>36.1423942225854</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.07670877809474</v>
       </c>
       <c r="H6">
-        <v>22.73747396022258</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.523919275231266</v>
+        <v>22.93690336950954</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.476593802159568</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.98293142610466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.92556777780243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53483501244976</v>
+        <v>18.42130367878639</v>
       </c>
       <c r="C7">
-        <v>16.96532457949042</v>
+        <v>16.83854381477055</v>
       </c>
       <c r="D7">
-        <v>2.744451889070769</v>
+        <v>2.908532496625507</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.60298514405976</v>
+        <v>36.78190468727306</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.073062353929368</v>
       </c>
       <c r="H7">
-        <v>23.01137863393628</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9.650500471424511</v>
+        <v>23.20333602049862</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.604214863809988</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.42000298843395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>17.36180102781169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47358719560493</v>
+        <v>20.35547415285591</v>
       </c>
       <c r="C8">
-        <v>18.79108837285767</v>
+        <v>18.6568225348581</v>
       </c>
       <c r="D8">
-        <v>2.68744257580818</v>
+        <v>2.850453898779183</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.44807202032017</v>
+        <v>39.57665579044341</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.057287723207264</v>
       </c>
       <c r="H8">
-        <v>24.24010389094332</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.21706895776835</v>
+        <v>24.40086859021787</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.17486475006963</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.2584858973626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>19.1965458107357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.92668812688796</v>
+        <v>23.79949361462532</v>
       </c>
       <c r="C9">
-        <v>22.06178100234121</v>
+        <v>21.91377572208582</v>
       </c>
       <c r="D9">
-        <v>2.573988260313944</v>
+        <v>2.734863072278803</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.89853099840359</v>
+        <v>44.94498907237033</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.027205032935389</v>
       </c>
       <c r="H9">
-        <v>26.71999545794064</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11.35676800683223</v>
+        <v>26.82655421224034</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.32053415058557</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.55722014940691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>22.48768594869845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26846672885522</v>
+        <v>26.13438735595313</v>
       </c>
       <c r="C10">
-        <v>24.2952391614593</v>
+        <v>24.13740218195469</v>
       </c>
       <c r="D10">
-        <v>2.488597288611702</v>
+        <v>2.647804974006853</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.82861009255478</v>
+        <v>48.82381349659666</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.005303492635104</v>
       </c>
       <c r="H10">
-        <v>28.58911768762505</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.21483683874543</v>
+        <v>28.66026255815721</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.18157707761635</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.81353083864799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.73806891797954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.29593578125171</v>
+        <v>27.15862526451564</v>
       </c>
       <c r="C11">
-        <v>25.2795252666342</v>
+        <v>25.11719026348939</v>
       </c>
       <c r="D11">
-        <v>2.449051746445469</v>
+        <v>2.607457360278546</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.60500551947474</v>
+        <v>50.5785738429818</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.995298097060842</v>
       </c>
       <c r="H11">
-        <v>29.45219206598754</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12.61130724081616</v>
+        <v>29.50814440408177</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.57905426415377</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.80884513785219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>25.73054947423163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.6800147703016</v>
+        <v>27.54146034803924</v>
       </c>
       <c r="C12">
-        <v>25.64818242001425</v>
+        <v>25.48413192931072</v>
       </c>
       <c r="D12">
-        <v>2.433952234695446</v>
+        <v>2.592045311953645</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.27669101847738</v>
+        <v>51.24227980647558</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.991494714194288</v>
       </c>
       <c r="H12">
-        <v>29.78119663435848</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12.76252914466493</v>
+        <v>29.83151957933638</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.73060366104677</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.18178632084929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>26.10239086129823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.59751123793946</v>
+        <v>27.45922573241456</v>
       </c>
       <c r="C13">
-        <v>25.56895787736001</v>
+        <v>25.40527754457016</v>
       </c>
       <c r="D13">
-        <v>2.437210123582513</v>
+        <v>2.595370950626668</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.13206310899295</v>
+        <v>51.09936144809032</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.992314638563645</v>
       </c>
       <c r="H13">
-        <v>29.71023612388693</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12.72990843845997</v>
+        <v>29.76176613221465</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.69791488738931</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.10163401684426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>26.02247673813039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.32763168123749</v>
+        <v>27.19021927605653</v>
       </c>
       <c r="C14">
-        <v>25.30993339979347</v>
+        <v>25.14745756182879</v>
       </c>
       <c r="D14">
-        <v>2.447812139389065</v>
+        <v>2.606192234117475</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.66028094969944</v>
+        <v>50.63318869685214</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.994985535854277</v>
       </c>
       <c r="H14">
-        <v>29.47921347845951</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12.62372514755103</v>
+        <v>29.53470026547062</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.59150021730024</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.83960344460663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.76121788238823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.16168545421714</v>
+        <v>27.02480499067296</v>
       </c>
       <c r="C15">
-        <v>25.15075922296133</v>
+        <v>24.98901930310726</v>
       </c>
       <c r="D15">
-        <v>2.454289226169867</v>
+        <v>2.612802394896971</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.37119400473039</v>
+        <v>50.34756452679294</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.996619366060422</v>
       </c>
       <c r="H15">
-        <v>29.33800099776088</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>12.55883366073176</v>
+        <v>29.39592722161615</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.52645987026285</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.67860258108324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>25.60068599847282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20059409711336</v>
+        <v>26.06672340773358</v>
       </c>
       <c r="C16">
-        <v>24.23031564857191</v>
+        <v>24.07277142300867</v>
       </c>
       <c r="D16">
-        <v>2.491165608693206</v>
+        <v>2.650424630974552</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.7123386972743</v>
+        <v>48.70898748002136</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.005955824701174</v>
       </c>
       <c r="H16">
-        <v>28.53299739089857</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.18906599184647</v>
+        <v>28.60515297563157</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.15573314868115</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.74790067941406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.67262063332309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.6016006280155</v>
+        <v>25.4695470961859</v>
       </c>
       <c r="C17">
-        <v>23.65785419809261</v>
+        <v>23.50287182014058</v>
       </c>
       <c r="D17">
-        <v>2.513592459965699</v>
+        <v>2.673296249557372</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.69214877486149</v>
+        <v>47.70164904843217</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.011667003432045</v>
       </c>
       <c r="H17">
-        <v>28.04263510994023</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>11.96392144268562</v>
+        <v>28.12375029191871</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.92990901645132</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.16931872349926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24.09561654724575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25348621797949</v>
+        <v>25.12246897941232</v>
       </c>
       <c r="C18">
-        <v>23.32556992900344</v>
+        <v>23.17205925076882</v>
       </c>
       <c r="D18">
-        <v>2.526427388802756</v>
+        <v>2.686383069254395</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.10423618134186</v>
+        <v>47.12128842990082</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.014948524749504</v>
       </c>
       <c r="H18">
-        <v>27.7617699044884</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11.8349852978928</v>
+        <v>27.84812548933997</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.80054968854255</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.83357236844146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>23.76076534088361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13499193210984</v>
+        <v>25.00432419801384</v>
       </c>
       <c r="C19">
-        <v>23.21253180221418</v>
+        <v>23.05951933797314</v>
       </c>
       <c r="D19">
-        <v>2.530762698234573</v>
+        <v>2.690803056732565</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.90496963600541</v>
+        <v>46.92460716408768</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.016059244220287</v>
       </c>
       <c r="H19">
-        <v>27.66686778752537</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>11.79142089730407</v>
+        <v>27.7550128260395</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.75683656501396</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.71937160256797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23.64686571145129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.66573301584503</v>
+        <v>25.53348700330704</v>
       </c>
       <c r="C20">
-        <v>23.71910289275427</v>
+        <v>23.56384804499249</v>
       </c>
       <c r="D20">
-        <v>2.511211913059997</v>
+        <v>2.670868779136099</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.80086235327747</v>
+        <v>47.80897818436441</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.01105944737486</v>
       </c>
       <c r="H20">
-        <v>28.09471101284087</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>11.98782912041498</v>
+        <v>28.17486346519037</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.9538924065135</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.23121281768884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>24.15734400277095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.40703376548382</v>
+        <v>27.26936551832834</v>
       </c>
       <c r="C21">
-        <v>25.38612133737214</v>
+        <v>25.22329211755684</v>
       </c>
       <c r="D21">
-        <v>2.444701649223409</v>
+        <v>2.60301760234326</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.79887557091561</v>
+        <v>50.77013016002309</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.994201498307135</v>
       </c>
       <c r="H21">
-        <v>29.54700805992033</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.65488226953729</v>
+        <v>29.60132937369339</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.62272679608482</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.91667125853627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25.83805981474012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.51617756124582</v>
+        <v>28.3748428989209</v>
       </c>
       <c r="C22">
-        <v>26.45217561612386</v>
+        <v>26.28431972037662</v>
       </c>
       <c r="D22">
-        <v>2.400495092138869</v>
+        <v>2.557881624153168</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.83244074133597</v>
+        <v>52.72683570938747</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.983093979498691</v>
       </c>
       <c r="H22">
-        <v>30.50910557820076</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.13600264896547</v>
+        <v>30.54725894603344</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.13393515932827</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.99541745467848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.913545974509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.92668806443693</v>
+        <v>27.78732392546497</v>
       </c>
       <c r="C23">
-        <v>25.88516328760785</v>
+        <v>25.72000052595993</v>
       </c>
       <c r="D23">
-        <v>2.4241649717388</v>
+        <v>2.582053432179076</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.72583417644192</v>
+        <v>51.67071079059428</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.989033684852208</v>
       </c>
       <c r="H23">
-        <v>29.99428826147922</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12.86050484112353</v>
+        <v>30.04100919918766</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.82974667702757</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.42156574901523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>26.34145172394222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.63675046043509</v>
+        <v>25.50459149420526</v>
       </c>
       <c r="C24">
-        <v>23.69142226317033</v>
+        <v>23.53629060195378</v>
       </c>
       <c r="D24">
-        <v>2.512288338995782</v>
+        <v>2.671966430884091</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.75171732529272</v>
+        <v>47.76045855152393</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.011334128803012</v>
       </c>
       <c r="H24">
-        <v>28.07116424850989</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>11.97701890880547</v>
+        <v>28.15175167186155</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.94304806624769</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.20324022763957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>24.12944678691396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02819592224303</v>
+        <v>22.9034812616618</v>
       </c>
       <c r="C25">
-        <v>21.20827331913907</v>
+        <v>21.06391423984929</v>
       </c>
       <c r="D25">
-        <v>2.604957976871576</v>
+        <v>2.766421591584077</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.43803846971221</v>
+        <v>43.5050310862301</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.035282363920446</v>
       </c>
       <c r="H25">
-        <v>26.0413997407769</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.04518851729062</v>
+        <v>26.1618465502462</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.00757518274733</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.69576842527858</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.62833295520869</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.85535161489655</v>
+        <v>20.53196205783135</v>
       </c>
       <c r="C2">
-        <v>19.12796863461809</v>
+        <v>10.08214305898281</v>
       </c>
       <c r="D2">
-        <v>2.834639278995882</v>
+        <v>4.976815934728821</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.32655830007998</v>
+        <v>37.19460573728167</v>
       </c>
       <c r="G2">
-        <v>2.053081585955955</v>
+        <v>2.089695493885691</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.73054269885504</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.3312512483246</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.1772703842452</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.094326239069085</v>
       </c>
       <c r="M2">
-        <v>19.67226958821581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.53128871085018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.37868893321981</v>
+        <v>19.06830643259337</v>
       </c>
       <c r="C3">
-        <v>17.73764317934763</v>
+        <v>9.65943895079322</v>
       </c>
       <c r="D3">
-        <v>2.880404248051204</v>
+        <v>5.031791082420507</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.14322183854564</v>
+        <v>35.55637930433848</v>
       </c>
       <c r="G3">
-        <v>2.065352864870825</v>
+        <v>2.100099210878198</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.78022030575876</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.879667214547974</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.06251967007733</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.808793203854091</v>
       </c>
       <c r="M3">
-        <v>18.26880103673025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.41425777020779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.42664540303951</v>
+        <v>18.1246100133984</v>
       </c>
       <c r="C4">
-        <v>16.84355543706408</v>
+        <v>9.391046041481799</v>
       </c>
       <c r="D4">
-        <v>2.908378935131087</v>
+        <v>5.066635142625508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.78937401441956</v>
+        <v>34.54850789426261</v>
       </c>
       <c r="G4">
-        <v>2.073019871391701</v>
+        <v>2.106629202684931</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.20646573260754</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.605712384800533</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.34271233084985</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.634922943743152</v>
       </c>
       <c r="M4">
-        <v>17.36685535111106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.73418452787312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.02704847524315</v>
+        <v>17.74584503077521</v>
       </c>
       <c r="C5">
-        <v>16.46880168018232</v>
+        <v>9.279470804333696</v>
       </c>
       <c r="D5">
-        <v>2.919761481484437</v>
+        <v>5.08109985117885</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.23467081242497</v>
+        <v>34.13765440067782</v>
       </c>
       <c r="G5">
-        <v>2.076181446148247</v>
+        <v>2.109328449396719</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.97515853902481</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.49493506664969</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.04037033651796</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.564499757771707</v>
       </c>
       <c r="M5">
-        <v>16.98895066096131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.45869888213111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.95998696408211</v>
+        <v>17.68596432886425</v>
       </c>
       <c r="C6">
-        <v>16.40593892823784</v>
+        <v>9.26081169583483</v>
       </c>
       <c r="D6">
-        <v>2.921650886582047</v>
+        <v>5.083517523361091</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.1423942225854</v>
+        <v>34.06943614338332</v>
       </c>
       <c r="G6">
-        <v>2.07670877809474</v>
+        <v>2.109779035221066</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.93690336950954</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.476593802159568</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.98961869156784</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.552834118055847</v>
       </c>
       <c r="M6">
-        <v>16.92556777780243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.41306061407717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.42130367878639</v>
+        <v>18.11931580667615</v>
       </c>
       <c r="C7">
-        <v>16.83854381477055</v>
+        <v>9.389550178601064</v>
       </c>
       <c r="D7">
-        <v>2.908532496625507</v>
+        <v>5.066829153789394</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.78190468727306</v>
+        <v>34.54296700636787</v>
       </c>
       <c r="G7">
-        <v>2.073062353929368</v>
+        <v>2.10666544774421</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.20333602049862</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.604214863809988</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.33867150190796</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.633971356297736</v>
       </c>
       <c r="M7">
-        <v>17.36180102781169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.73046227275518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.35547415285591</v>
+        <v>20.03655182022233</v>
       </c>
       <c r="C8">
-        <v>18.6568225348581</v>
+        <v>9.93824096182006</v>
       </c>
       <c r="D8">
-        <v>2.850453898779183</v>
+        <v>4.995539756231727</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.57665579044341</v>
+        <v>36.6303545019567</v>
       </c>
       <c r="G8">
-        <v>2.057287723207264</v>
+        <v>2.093254775863088</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.40086859021787</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10.17486475006963</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.80016107331355</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.995610917848578</v>
       </c>
       <c r="M8">
-        <v>19.1965458107357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.14504078379253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.79949361462532</v>
+        <v>23.4459911454522</v>
       </c>
       <c r="C9">
-        <v>21.91377572208582</v>
+        <v>10.94375778759105</v>
       </c>
       <c r="D9">
-        <v>2.734863072278803</v>
+        <v>4.864858377336589</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.94498907237033</v>
+        <v>40.69604393449224</v>
       </c>
       <c r="G9">
-        <v>2.027205032935389</v>
+        <v>2.067959597179774</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.82655421224034</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>11.32053415058557</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.39193407718195</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.713886309462437</v>
       </c>
       <c r="M9">
-        <v>22.48768594869845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.95854418151604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.13438735595313</v>
+        <v>25.74856169564392</v>
       </c>
       <c r="C10">
-        <v>24.13740218195469</v>
+        <v>11.64037160680973</v>
       </c>
       <c r="D10">
-        <v>2.647804974006853</v>
+        <v>4.775256485578754</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.82381349659666</v>
+        <v>43.65696154144744</v>
       </c>
       <c r="G10">
-        <v>2.005303492635104</v>
+        <v>2.049793942382934</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.66026255815721</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.18157707761635</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.13852721243821</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.244878562706543</v>
       </c>
       <c r="M10">
-        <v>24.73806891797954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.04496307559445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.15862526451564</v>
+        <v>26.75506617631945</v>
       </c>
       <c r="C11">
-        <v>25.11719026348939</v>
+        <v>11.94862975452059</v>
       </c>
       <c r="D11">
-        <v>2.607457360278546</v>
+        <v>4.736147102407219</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.5785738429818</v>
+        <v>44.99831425012853</v>
       </c>
       <c r="G11">
-        <v>1.995298097060842</v>
+        <v>2.041571535289112</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.50814440408177</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12.57905426415377</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.90127715302834</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.486971793635607</v>
       </c>
       <c r="M11">
-        <v>25.73054947423163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.99856775291407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.54146034803924</v>
+        <v>27.13059678531803</v>
       </c>
       <c r="C12">
-        <v>25.48413192931072</v>
+        <v>12.06418057491734</v>
       </c>
       <c r="D12">
-        <v>2.592045311953645</v>
+        <v>4.721603663171317</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.24227980647558</v>
+        <v>45.50558564485673</v>
       </c>
       <c r="G12">
-        <v>1.991494714194288</v>
+        <v>2.038459141536972</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.83151957933638</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>12.73060366104677</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.18576443992163</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.578731171252631</v>
       </c>
       <c r="M12">
-        <v>26.10239086129823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.36042880920247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.45922573241456</v>
+        <v>27.04996428880073</v>
       </c>
       <c r="C13">
-        <v>25.40527754457016</v>
+        <v>12.03934592752073</v>
       </c>
       <c r="D13">
-        <v>2.595370950626668</v>
+        <v>4.724723469083565</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.09936144809032</v>
+        <v>45.39636212490552</v>
       </c>
       <c r="G13">
-        <v>1.992314638563645</v>
+        <v>2.039129476514344</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.76176613221465</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>12.69791488738931</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.12468466497434</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.55896511622778</v>
       </c>
       <c r="M13">
-        <v>26.02247673813039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.28245955910515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.19021927605653</v>
+        <v>26.78607203767455</v>
       </c>
       <c r="C14">
-        <v>25.14745756182879</v>
+        <v>11.95815941527135</v>
       </c>
       <c r="D14">
-        <v>2.606192234117475</v>
+        <v>4.734945075081487</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.63318869685214</v>
+        <v>45.04006002866034</v>
       </c>
       <c r="G14">
-        <v>1.994985535854277</v>
+        <v>2.041315480626276</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.53470026547062</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12.59150021730024</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.92476790767906</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.494519108993403</v>
       </c>
       <c r="M14">
-        <v>25.76121788238823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.02832231571463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.02480499067296</v>
+        <v>26.62370856374929</v>
       </c>
       <c r="C15">
-        <v>24.98901930310726</v>
+        <v>11.90827883409229</v>
       </c>
       <c r="D15">
-        <v>2.612802394896971</v>
+        <v>4.741241776222556</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.34756452679294</v>
+        <v>44.82173337106789</v>
       </c>
       <c r="G15">
-        <v>1.996619366060422</v>
+        <v>2.042654485336986</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.39592722161615</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12.52645987026285</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.80175367432355</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.45505549874623</v>
       </c>
       <c r="M15">
-        <v>25.60068599847282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.87275834971528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.06672340773358</v>
+        <v>25.6819832135271</v>
       </c>
       <c r="C16">
-        <v>24.07277142300867</v>
+        <v>11.62005732289179</v>
       </c>
       <c r="D16">
-        <v>2.650424630974552</v>
+        <v>4.777847932367</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.70898748002136</v>
+        <v>43.56919745482401</v>
       </c>
       <c r="G16">
-        <v>2.005955824701174</v>
+        <v>2.050331739561657</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.60515297563157</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12.15573314868115</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.08805845141059</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.22906819397833</v>
       </c>
       <c r="M16">
-        <v>24.67262063332309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.98274032185751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.4695470961859</v>
+        <v>25.09396419600814</v>
       </c>
       <c r="C17">
-        <v>23.50287182014058</v>
+        <v>11.44106940225706</v>
       </c>
       <c r="D17">
-        <v>2.673296249557372</v>
+        <v>4.800746147727334</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.70164904843217</v>
+        <v>42.7994366772218</v>
       </c>
       <c r="G17">
-        <v>2.011667003432045</v>
+        <v>2.055048904427761</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.12375029191871</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>11.92990901645132</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.64223835759445</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.090569558761661</v>
       </c>
       <c r="M17">
-        <v>24.09561654724575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.43794269918994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12246897941232</v>
+        <v>24.75187854968926</v>
       </c>
       <c r="C18">
-        <v>23.17205925076882</v>
+        <v>11.33730273390315</v>
       </c>
       <c r="D18">
-        <v>2.686383069254395</v>
+        <v>4.814069906421468</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.12128842990082</v>
+        <v>42.35615037744469</v>
       </c>
       <c r="G18">
-        <v>2.014948524749504</v>
+        <v>2.057766287326757</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.84812548933997</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>11.80054968854255</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.38280815544095</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.010958378510944</v>
       </c>
       <c r="M18">
-        <v>23.76076534088361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.12500038101179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00432419801384</v>
+        <v>24.63538121398008</v>
       </c>
       <c r="C19">
-        <v>23.05951933797314</v>
+        <v>11.30202712061432</v>
       </c>
       <c r="D19">
-        <v>2.690803056732565</v>
+        <v>4.818606652194998</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.92460716408768</v>
+        <v>42.20596622850669</v>
       </c>
       <c r="G19">
-        <v>2.016059244220287</v>
+        <v>2.058687199870437</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.7550128260395</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>11.75683656501396</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.29444688619314</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.984012036465408</v>
       </c>
       <c r="M19">
-        <v>23.64686571145129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.01911206853968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.53348700330704</v>
+        <v>25.1569587333089</v>
       </c>
       <c r="C20">
-        <v>23.56384804499249</v>
+        <v>11.46020719563036</v>
       </c>
       <c r="D20">
-        <v>2.670868779136099</v>
+        <v>4.798292536765025</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.80897818436441</v>
+        <v>42.88143433323371</v>
       </c>
       <c r="G20">
-        <v>2.01105944737486</v>
+        <v>2.054546352060121</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.17486346519037</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>11.9538924065135</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.69000628489904</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.10530786082832</v>
       </c>
       <c r="M20">
-        <v>24.15734400277095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.49589428824252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.26936551832834</v>
+        <v>26.86373347525508</v>
       </c>
       <c r="C21">
-        <v>25.22329211755684</v>
+        <v>11.98203729708287</v>
       </c>
       <c r="D21">
-        <v>2.60301760234326</v>
+        <v>4.731935246120181</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.77013016002309</v>
+        <v>45.14473114272401</v>
       </c>
       <c r="G21">
-        <v>1.994201498307135</v>
+        <v>2.04067340451845</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.60132937369339</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>12.62272679608482</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.98360446231619</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.513446043842761</v>
       </c>
       <c r="M21">
-        <v>25.83805981474012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.10294693191763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3748428989209</v>
+        <v>27.94666100680724</v>
       </c>
       <c r="C22">
-        <v>26.28431972037662</v>
+        <v>12.31624877933579</v>
       </c>
       <c r="D22">
-        <v>2.557881624153168</v>
+        <v>4.690138469192903</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.72683570938747</v>
+        <v>46.62016716532188</v>
       </c>
       <c r="G22">
-        <v>1.983093979498691</v>
+        <v>2.031611306872855</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.54725894603344</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.13393515932827</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.80381500209455</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.780693838282909</v>
       </c>
       <c r="M22">
-        <v>26.913545974509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.15773886330349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.78732392546497</v>
+        <v>27.37155912096633</v>
       </c>
       <c r="C23">
-        <v>25.72000052595993</v>
+        <v>12.13847380706266</v>
       </c>
       <c r="D23">
-        <v>2.582053432179076</v>
+        <v>4.712290995187334</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.67071079059428</v>
+        <v>45.83296918411678</v>
       </c>
       <c r="G23">
-        <v>1.989033684852208</v>
+        <v>2.036449200817444</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.04100919918766</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>12.82974667702757</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.36828186654936</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.638005364310448</v>
       </c>
       <c r="M23">
-        <v>26.34145172394222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.59430898757751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.50459149420526</v>
+        <v>25.12849146257419</v>
       </c>
       <c r="C24">
-        <v>23.53629060195378</v>
+        <v>11.45155769523459</v>
       </c>
       <c r="D24">
-        <v>2.671966430884091</v>
+        <v>4.799401320303579</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.76045855152393</v>
+        <v>42.84436550826841</v>
       </c>
       <c r="G24">
-        <v>2.011334128803012</v>
+        <v>2.054773538752575</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.15175167186155</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>11.94304806624769</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.66842014655975</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.098644632511716</v>
       </c>
       <c r="M24">
-        <v>24.12944678691396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.46969354370487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9034812616618</v>
+        <v>22.56008212328007</v>
       </c>
       <c r="C25">
-        <v>21.06391423984929</v>
+        <v>10.67925434834099</v>
       </c>
       <c r="D25">
-        <v>2.766421591584077</v>
+        <v>4.899159239609633</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.5050310862301</v>
+        <v>39.60043149138045</v>
       </c>
       <c r="G25">
-        <v>2.035282363920446</v>
+        <v>2.074713875432333</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.1618465502462</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>11.00757518274733</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.71921203126775</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.518884286063869</v>
       </c>
       <c r="M25">
-        <v>21.62833295520869</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.1938815942635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.53196205783135</v>
+        <v>25.09289710279099</v>
       </c>
       <c r="C2">
-        <v>10.08214305898281</v>
+        <v>18.10044118478599</v>
       </c>
       <c r="D2">
-        <v>4.976815934728821</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.355144050975549</v>
       </c>
       <c r="F2">
-        <v>37.19460573728167</v>
+        <v>10.26842727840118</v>
       </c>
       <c r="G2">
-        <v>2.089695493885691</v>
+        <v>9.200132318228079</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.624100380516673</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>7.483589083223697</v>
       </c>
       <c r="K2">
-        <v>16.1772703842452</v>
-      </c>
-      <c r="L2">
-        <v>8.094326239069085</v>
-      </c>
-      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.53128871085018</v>
+        <v>7.574321677284717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.06830643259337</v>
+        <v>23.50712174054536</v>
       </c>
       <c r="C3">
-        <v>9.65943895079322</v>
+        <v>17.03628732616392</v>
       </c>
       <c r="D3">
-        <v>5.031791082420507</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>5.05267419085429</v>
       </c>
       <c r="F3">
-        <v>35.55637930433848</v>
+        <v>10.14774060202419</v>
       </c>
       <c r="G3">
-        <v>2.100099210878198</v>
+        <v>9.097180009531186</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.772633645239899</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>7.880615087485157</v>
       </c>
       <c r="K3">
-        <v>15.06251967007733</v>
-      </c>
-      <c r="L3">
-        <v>7.808793203854091</v>
-      </c>
-      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.41425777020779</v>
+        <v>7.782078839734672</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.1246100133984</v>
+        <v>22.47655579204464</v>
       </c>
       <c r="C4">
-        <v>9.391046041481799</v>
+        <v>16.34778898215359</v>
       </c>
       <c r="D4">
-        <v>5.066635142625508</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.857072944087092</v>
       </c>
       <c r="F4">
-        <v>34.54850789426261</v>
+        <v>10.09634796934462</v>
       </c>
       <c r="G4">
-        <v>2.106629202684931</v>
+        <v>9.081427651495526</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.869244437739845</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>8.132127269454385</v>
       </c>
       <c r="K4">
-        <v>14.34271233084985</v>
-      </c>
-      <c r="L4">
-        <v>7.634922943743152</v>
-      </c>
-      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.73418452787312</v>
+        <v>7.92536165949479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.74584503077521</v>
+        <v>22.04231259699176</v>
       </c>
       <c r="C5">
-        <v>9.279470804333696</v>
+        <v>16.05850739795761</v>
       </c>
       <c r="D5">
-        <v>5.08109985117885</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.774910488551018</v>
       </c>
       <c r="F5">
-        <v>34.13765440067782</v>
+        <v>10.08092474702908</v>
       </c>
       <c r="G5">
-        <v>2.109328449396719</v>
+        <v>9.086315626406229</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.909920756337224</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>8.23656282048967</v>
       </c>
       <c r="K5">
-        <v>14.04037033651796</v>
-      </c>
-      <c r="L5">
-        <v>7.564499757771707</v>
-      </c>
-      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.45869888213111</v>
+        <v>7.987407507648636</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.68596432886425</v>
+        <v>21.96934565995794</v>
       </c>
       <c r="C6">
-        <v>9.26081169583483</v>
+        <v>16.00995015504971</v>
       </c>
       <c r="D6">
-        <v>5.083517523361091</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.761120402283976</v>
       </c>
       <c r="F6">
-        <v>34.06943614338332</v>
+        <v>10.07869081317987</v>
       </c>
       <c r="G6">
-        <v>2.109779035221066</v>
+        <v>9.087788993567003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.916752495523955</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>8.25402159393219</v>
       </c>
       <c r="K6">
-        <v>13.98961869156784</v>
-      </c>
-      <c r="L6">
-        <v>7.552834118055847</v>
-      </c>
-      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.41306061407717</v>
+        <v>7.997922929702875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.11931580667615</v>
+        <v>22.47075720038281</v>
       </c>
       <c r="C7">
-        <v>9.389550178601064</v>
+        <v>16.34392273328092</v>
       </c>
       <c r="D7">
-        <v>5.066829153789394</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.855974757590843</v>
       </c>
       <c r="F7">
-        <v>34.54296700636787</v>
+        <v>10.09611789673554</v>
       </c>
       <c r="G7">
-        <v>2.10666544774421</v>
+        <v>9.081448729370086</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.869787788654471</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>8.133527859268883</v>
       </c>
       <c r="K7">
-        <v>14.33867150190796</v>
-      </c>
-      <c r="L7">
-        <v>7.633971356297736</v>
-      </c>
-      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.73046227275518</v>
+        <v>7.926183995188387</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.03655182022233</v>
+        <v>24.55793946855854</v>
       </c>
       <c r="C8">
-        <v>9.93824096182006</v>
+        <v>17.74086553358732</v>
       </c>
       <c r="D8">
-        <v>4.995539756231727</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.252920373640917</v>
       </c>
       <c r="F8">
-        <v>36.6303545019567</v>
+        <v>10.22199848062634</v>
       </c>
       <c r="G8">
-        <v>2.093254775863088</v>
+        <v>9.154457737531697</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.674157022042451</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>7.618874024099862</v>
       </c>
       <c r="K8">
-        <v>15.80016107331355</v>
-      </c>
-      <c r="L8">
-        <v>7.995610917848578</v>
-      </c>
-      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.14504078379253</v>
+        <v>7.642507175867744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.4459911454522</v>
+        <v>28.19935208570417</v>
       </c>
       <c r="C9">
-        <v>10.94375778759105</v>
+        <v>20.19820855242334</v>
       </c>
       <c r="D9">
-        <v>4.864858377336589</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.951902162074441</v>
       </c>
       <c r="F9">
-        <v>40.69604393449224</v>
+        <v>10.65542059324249</v>
       </c>
       <c r="G9">
-        <v>2.067959597179774</v>
+        <v>9.692674996209243</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.336275191172151</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>6.67158007966606</v>
       </c>
       <c r="K9">
-        <v>18.39193407718195</v>
-      </c>
-      <c r="L9">
-        <v>8.713886309462437</v>
-      </c>
-      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.95854418151604</v>
+        <v>7.225671848750754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74856169564392</v>
+        <v>30.60047278940715</v>
       </c>
       <c r="C10">
-        <v>11.64037160680973</v>
+        <v>21.82862869601988</v>
       </c>
       <c r="D10">
-        <v>4.775256485578754</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>6.416130280114089</v>
       </c>
       <c r="F10">
-        <v>43.65696154144744</v>
+        <v>11.09316601386693</v>
       </c>
       <c r="G10">
-        <v>2.049793942382934</v>
+        <v>10.38137997835362</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.120511928342367</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>6.015106787374075</v>
       </c>
       <c r="K10">
-        <v>20.13852721243821</v>
-      </c>
-      <c r="L10">
-        <v>9.244878562706543</v>
-      </c>
-      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.04496307559445</v>
+        <v>7.026700844589162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.75506617631945</v>
+        <v>31.63373822401486</v>
       </c>
       <c r="C11">
-        <v>11.94862975452059</v>
+        <v>22.53208449393504</v>
       </c>
       <c r="D11">
-        <v>4.736147102407219</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>6.616525302713565</v>
       </c>
       <c r="F11">
-        <v>44.99831425012853</v>
+        <v>11.3185552354099</v>
       </c>
       <c r="G11">
-        <v>2.041571535289112</v>
+        <v>10.8467136876894</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.030646958542976</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>5.72586075275392</v>
       </c>
       <c r="K11">
-        <v>20.90127715302834</v>
-      </c>
-      <c r="L11">
-        <v>9.486971793635607</v>
-      </c>
-      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.99856775291407</v>
+        <v>6.964763512503716</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.13059678531803</v>
+        <v>32.01657129851663</v>
       </c>
       <c r="C12">
-        <v>12.06418057491734</v>
+        <v>22.79296180754882</v>
       </c>
       <c r="D12">
-        <v>4.721603663171317</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.690856264343194</v>
       </c>
       <c r="F12">
-        <v>45.50558564485673</v>
+        <v>11.40765819655545</v>
       </c>
       <c r="G12">
-        <v>2.038459141536972</v>
+        <v>11.02750381598042</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.997931935678502</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>5.617798510007221</v>
       </c>
       <c r="K12">
-        <v>21.18576443992163</v>
-      </c>
-      <c r="L12">
-        <v>9.578731171252631</v>
-      </c>
-      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.36042880920247</v>
+        <v>6.945873382555128</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.04996428880073</v>
+        <v>31.93449602613682</v>
       </c>
       <c r="C13">
-        <v>12.03934592752073</v>
+        <v>22.73702211624825</v>
       </c>
       <c r="D13">
-        <v>4.724723469083565</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>6.674916911140414</v>
       </c>
       <c r="F13">
-        <v>45.39636212490552</v>
+        <v>11.38830202786992</v>
       </c>
       <c r="G13">
-        <v>2.039129476514344</v>
+        <v>10.98837111758731</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.00491707668622</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>5.641003855339184</v>
       </c>
       <c r="K13">
-        <v>21.12468466497434</v>
-      </c>
-      <c r="L13">
-        <v>9.55896511622778</v>
-      </c>
-      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.28245955910515</v>
+        <v>6.949731464946813</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.78607203767455</v>
+        <v>31.66540304350391</v>
       </c>
       <c r="C14">
-        <v>11.95815941527135</v>
+        <v>22.55365738834476</v>
       </c>
       <c r="D14">
-        <v>4.734945075081487</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>6.622671714586866</v>
       </c>
       <c r="F14">
-        <v>45.04006002866034</v>
+        <v>11.32581080621931</v>
       </c>
       <c r="G14">
-        <v>2.041315480626276</v>
+        <v>10.86149828735466</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.027928355104664</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>5.71694009961472</v>
       </c>
       <c r="K14">
-        <v>20.92476790767906</v>
-      </c>
-      <c r="L14">
-        <v>9.494519108993403</v>
-      </c>
-      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.02832231571463</v>
+        <v>6.96311532638975</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.62370856374929</v>
+        <v>31.49947785313721</v>
       </c>
       <c r="C15">
-        <v>11.90827883409229</v>
+        <v>22.44062407285206</v>
       </c>
       <c r="D15">
-        <v>4.741241776222556</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>6.590467560231305</v>
       </c>
       <c r="F15">
-        <v>44.82173337106789</v>
+        <v>11.28802070884502</v>
       </c>
       <c r="G15">
-        <v>2.042654485336986</v>
+        <v>10.78436748847347</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.042198612122344</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>5.763648951741287</v>
       </c>
       <c r="K15">
-        <v>20.80175367432355</v>
-      </c>
-      <c r="L15">
-        <v>9.45505549874623</v>
-      </c>
-      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.87275834971528</v>
+        <v>6.971921256103658</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.6819832135271</v>
+        <v>30.53176252013794</v>
       </c>
       <c r="C16">
-        <v>11.62005732289179</v>
+        <v>21.78188591003185</v>
       </c>
       <c r="D16">
-        <v>4.777847932367</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>6.402816609937729</v>
       </c>
       <c r="F16">
-        <v>43.56919745482401</v>
+        <v>11.07896338329637</v>
       </c>
       <c r="G16">
-        <v>2.050331739561657</v>
+        <v>10.35163561500393</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.126561723304555</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>6.034207658260821</v>
       </c>
       <c r="K16">
-        <v>20.08805845141059</v>
-      </c>
-      <c r="L16">
-        <v>9.22906819397833</v>
-      </c>
-      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.98274032185751</v>
+        <v>7.031362425947929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.09396419600814</v>
+        <v>29.92301408895666</v>
       </c>
       <c r="C17">
-        <v>11.44106940225706</v>
+        <v>21.36796978528163</v>
       </c>
       <c r="D17">
-        <v>4.800746147727334</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>6.284933119811287</v>
       </c>
       <c r="F17">
-        <v>42.7994366772218</v>
+        <v>10.95743190835191</v>
       </c>
       <c r="G17">
-        <v>2.055048904427761</v>
+        <v>10.133992795821</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.18052069252153</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>6.202660859654701</v>
       </c>
       <c r="K17">
-        <v>19.64223835759445</v>
-      </c>
-      <c r="L17">
-        <v>9.090569558761661</v>
-      </c>
-      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.43794269918994</v>
+        <v>7.07546869539364</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.75187854968926</v>
+        <v>29.56732000148265</v>
       </c>
       <c r="C18">
-        <v>11.33730273390315</v>
+        <v>21.12629745244749</v>
       </c>
       <c r="D18">
-        <v>4.814069906421468</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>6.216114532576346</v>
       </c>
       <c r="F18">
-        <v>42.35615037744469</v>
+        <v>10.89000510428543</v>
       </c>
       <c r="G18">
-        <v>2.057766287326757</v>
+        <v>10.03324982057248</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.212328107545755</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>6.300424692544482</v>
       </c>
       <c r="K18">
-        <v>19.38280815544095</v>
-      </c>
-      <c r="L18">
-        <v>9.010958378510944</v>
-      </c>
-      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.12500038101179</v>
+        <v>7.103499172099228</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.63538121398008</v>
+        <v>29.44593226223066</v>
       </c>
       <c r="C19">
-        <v>11.30202712061432</v>
+        <v>21.04385372106451</v>
       </c>
       <c r="D19">
-        <v>4.818606652194998</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>6.19263955159941</v>
       </c>
       <c r="F19">
-        <v>42.20596622850669</v>
+        <v>10.86760081057798</v>
       </c>
       <c r="G19">
-        <v>2.058687199870437</v>
+        <v>10.00001105830551</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.223226597384024</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>6.333673100219034</v>
       </c>
       <c r="K19">
-        <v>19.29444688619314</v>
-      </c>
-      <c r="L19">
-        <v>8.984012036465408</v>
-      </c>
-      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.01911206853968</v>
+        <v>7.113433172784676</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.1569587333089</v>
+        <v>29.98839134245993</v>
       </c>
       <c r="C20">
-        <v>11.46020719563036</v>
+        <v>21.41240441629966</v>
       </c>
       <c r="D20">
-        <v>4.798292536765025</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>6.297587114917548</v>
       </c>
       <c r="F20">
-        <v>42.88143433323371</v>
+        <v>10.97011307122601</v>
       </c>
       <c r="G20">
-        <v>2.054546352060121</v>
+        <v>10.15305003237374</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.174695966406402</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>6.184637565034457</v>
       </c>
       <c r="K20">
-        <v>19.69000628489904</v>
-      </c>
-      <c r="L20">
-        <v>9.10530786082832</v>
-      </c>
-      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.49589428824252</v>
+        <v>7.070494744203806</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86373347525508</v>
+        <v>31.74467090152901</v>
       </c>
       <c r="C21">
-        <v>11.98203729708287</v>
+        <v>22.60766550195347</v>
       </c>
       <c r="D21">
-        <v>4.731935246120181</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6.638059590214166</v>
       </c>
       <c r="F21">
-        <v>45.14473114272401</v>
+        <v>11.34406446099628</v>
       </c>
       <c r="G21">
-        <v>2.04067340451845</v>
+        <v>10.89864333623053</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.021132632482469</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>5.694594709584598</v>
       </c>
       <c r="K21">
-        <v>20.98360446231619</v>
-      </c>
-      <c r="L21">
-        <v>9.513446043842761</v>
-      </c>
-      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.10294693191763</v>
+        <v>6.959056658796148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.94666100680724</v>
+        <v>32.84331961977445</v>
       </c>
       <c r="C22">
-        <v>12.31624877933579</v>
+        <v>23.35674729110658</v>
       </c>
       <c r="D22">
-        <v>4.690138469192903</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>6.851518972857185</v>
       </c>
       <c r="F22">
-        <v>46.62016716532188</v>
+        <v>11.61030919046582</v>
       </c>
       <c r="G22">
-        <v>2.031611306872855</v>
+        <v>11.43282949172782</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.928503922613463</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>5.38298227280241</v>
       </c>
       <c r="K22">
-        <v>21.80381500209455</v>
-      </c>
-      <c r="L22">
-        <v>9.780693838282909</v>
-      </c>
-      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.15773886330349</v>
+        <v>6.913037743079255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.37155912096633</v>
+        <v>32.26143369147428</v>
       </c>
       <c r="C23">
-        <v>12.13847380706266</v>
+        <v>22.95988456226446</v>
       </c>
       <c r="D23">
-        <v>4.712290995187334</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.738420946861148</v>
       </c>
       <c r="F23">
-        <v>45.83296918411678</v>
+        <v>11.4662250145716</v>
       </c>
       <c r="G23">
-        <v>2.036449200817444</v>
+        <v>11.14544996112607</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.97718875513403</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>5.548449501588042</v>
       </c>
       <c r="K23">
-        <v>21.36828186654936</v>
-      </c>
-      <c r="L23">
-        <v>9.638005364310448</v>
-      </c>
-      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.59430898757751</v>
+        <v>6.934995671623617</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.12849146257419</v>
+        <v>29.9588520950676</v>
       </c>
       <c r="C24">
-        <v>11.45155769523459</v>
+        <v>21.39232706357232</v>
       </c>
       <c r="D24">
-        <v>4.799401320303579</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>6.291869500862719</v>
       </c>
       <c r="F24">
-        <v>42.84436550826841</v>
+        <v>10.96437230585308</v>
       </c>
       <c r="G24">
-        <v>2.054773538752575</v>
+        <v>10.14441872750881</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.177326886958896</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>6.192783045894876</v>
       </c>
       <c r="K24">
-        <v>19.66842014655975</v>
-      </c>
-      <c r="L24">
-        <v>9.098644632511716</v>
-      </c>
-      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.46969354370487</v>
+        <v>7.072735175695105</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.56008212328007</v>
+        <v>27.26253729840019</v>
       </c>
       <c r="C25">
-        <v>10.67925434834099</v>
+        <v>19.56401926277604</v>
       </c>
       <c r="D25">
-        <v>4.899159239609633</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.771425404205212</v>
       </c>
       <c r="F25">
-        <v>39.60043149138045</v>
+        <v>10.51745780513743</v>
       </c>
       <c r="G25">
-        <v>2.074713875432333</v>
+        <v>9.502947897799789</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.422351524313808</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>6.921099647223716</v>
       </c>
       <c r="K25">
-        <v>17.71921203126775</v>
-      </c>
-      <c r="L25">
-        <v>8.518884286063869</v>
-      </c>
-      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.1938815942635</v>
+        <v>7.32131555244594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.09289710279099</v>
+        <v>14.84080812019566</v>
       </c>
       <c r="C2">
-        <v>18.10044118478599</v>
+        <v>11.26986716156531</v>
       </c>
       <c r="D2">
-        <v>5.355144050975549</v>
+        <v>3.869677050508472</v>
       </c>
       <c r="F2">
-        <v>10.26842727840118</v>
+        <v>15.64784758971977</v>
       </c>
       <c r="G2">
-        <v>9.200132318228079</v>
+        <v>13.76652313815327</v>
       </c>
       <c r="H2">
-        <v>5.624100380516673</v>
+        <v>10.65895552034227</v>
       </c>
       <c r="I2">
-        <v>7.483589083223697</v>
+        <v>14.33961575045192</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.574321677284717</v>
+        <v>14.19738615010222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.50712174054536</v>
+        <v>13.95882645642748</v>
       </c>
       <c r="C3">
-        <v>17.03628732616392</v>
+        <v>10.70066776958554</v>
       </c>
       <c r="D3">
-        <v>5.05267419085429</v>
+        <v>3.745893094442527</v>
       </c>
       <c r="F3">
-        <v>10.14774060202419</v>
+        <v>15.75193083579618</v>
       </c>
       <c r="G3">
-        <v>9.097180009531186</v>
+        <v>13.94792005588849</v>
       </c>
       <c r="H3">
-        <v>5.772633645239899</v>
+        <v>10.72590190416732</v>
       </c>
       <c r="I3">
-        <v>7.880615087485157</v>
+        <v>14.48393346274043</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.782078839734672</v>
+        <v>14.32336227617294</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.47655579204464</v>
+        <v>13.38605718177017</v>
       </c>
       <c r="C4">
-        <v>16.34778898215359</v>
+        <v>10.33427683483231</v>
       </c>
       <c r="D4">
-        <v>4.857072944087092</v>
+        <v>3.667924757171807</v>
       </c>
       <c r="F4">
-        <v>10.09634796934462</v>
+        <v>15.82293656527337</v>
       </c>
       <c r="G4">
-        <v>9.081427651495526</v>
+        <v>14.0699823276107</v>
       </c>
       <c r="H4">
-        <v>5.869244437739845</v>
+        <v>10.76937522209283</v>
       </c>
       <c r="I4">
-        <v>8.132127269454385</v>
+        <v>14.57706995224686</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.92536165949479</v>
+        <v>14.40564674620291</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.04231259699176</v>
+        <v>13.14488168748407</v>
       </c>
       <c r="C5">
-        <v>16.05850739795761</v>
+        <v>10.18085086907751</v>
       </c>
       <c r="D5">
-        <v>4.774910488551018</v>
+        <v>3.635702219633206</v>
       </c>
       <c r="F5">
-        <v>10.08092474702908</v>
+        <v>15.85364382324834</v>
       </c>
       <c r="G5">
-        <v>9.086315626406229</v>
+        <v>14.12237318977746</v>
       </c>
       <c r="H5">
-        <v>5.909920756337224</v>
+        <v>10.78768686516834</v>
       </c>
       <c r="I5">
-        <v>8.23656282048967</v>
+        <v>14.61616438666758</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.987407507648636</v>
+        <v>14.440416642005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.96934565995794</v>
+        <v>13.10436849939262</v>
       </c>
       <c r="C6">
-        <v>16.00995015504971</v>
+        <v>10.15513015070933</v>
       </c>
       <c r="D6">
-        <v>4.761120402283976</v>
+        <v>3.630325889678673</v>
       </c>
       <c r="F6">
-        <v>10.07869081317987</v>
+        <v>15.858849369712</v>
       </c>
       <c r="G6">
-        <v>9.087788993567003</v>
+        <v>14.13123160592693</v>
       </c>
       <c r="H6">
-        <v>5.916752495523955</v>
+        <v>10.79076350553369</v>
       </c>
       <c r="I6">
-        <v>8.25402159393219</v>
+        <v>14.62272495613541</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.997922929702875</v>
+        <v>14.4462648756695</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.47075720038281</v>
+        <v>13.38283592509853</v>
       </c>
       <c r="C7">
-        <v>16.34392273328092</v>
+        <v>10.33222416426993</v>
       </c>
       <c r="D7">
-        <v>4.855974757590843</v>
+        <v>3.667491952858398</v>
       </c>
       <c r="F7">
-        <v>10.09611789673554</v>
+        <v>15.82334353735005</v>
       </c>
       <c r="G7">
-        <v>9.081448729370086</v>
+        <v>14.0706782098413</v>
       </c>
       <c r="H7">
-        <v>5.869787788654471</v>
+        <v>10.76961976584562</v>
       </c>
       <c r="I7">
-        <v>8.133527859268883</v>
+        <v>14.57759257170892</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.926183995188387</v>
+        <v>14.40611065458507</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.55793946855854</v>
+        <v>14.54322695243117</v>
       </c>
       <c r="C8">
-        <v>17.74086553358732</v>
+        <v>11.07718628251877</v>
       </c>
       <c r="D8">
-        <v>5.252920373640917</v>
+        <v>3.827429409225175</v>
       </c>
       <c r="F8">
-        <v>10.22199848062634</v>
+        <v>15.68225448076932</v>
       </c>
       <c r="G8">
-        <v>9.154457737531697</v>
+        <v>13.82682889014048</v>
       </c>
       <c r="H8">
-        <v>5.674157022042451</v>
+        <v>10.68154744085763</v>
       </c>
       <c r="I8">
-        <v>7.618874024099862</v>
+        <v>14.38843902702876</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.642507175867744</v>
+        <v>14.23979697620577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19935208570417</v>
+        <v>16.56823575948581</v>
       </c>
       <c r="C9">
-        <v>20.19820855242334</v>
+        <v>12.39931621284752</v>
       </c>
       <c r="D9">
-        <v>5.951902162074441</v>
+        <v>4.133408836959092</v>
       </c>
       <c r="F9">
-        <v>10.65542059324249</v>
+        <v>15.4624722817201</v>
       </c>
       <c r="G9">
-        <v>9.692674996209243</v>
+        <v>13.43509881480655</v>
       </c>
       <c r="H9">
-        <v>5.336275191172151</v>
+        <v>10.52760511817996</v>
       </c>
       <c r="I9">
-        <v>6.67158007966606</v>
+        <v>14.05328562706742</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.225671848750754</v>
+        <v>13.95292805383203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.60047278940715</v>
+        <v>17.90077219586145</v>
       </c>
       <c r="C10">
-        <v>21.82862869601988</v>
+        <v>13.2811909521447</v>
       </c>
       <c r="D10">
-        <v>6.416130280114089</v>
+        <v>4.358984317764701</v>
       </c>
       <c r="F10">
-        <v>11.09316601386693</v>
+        <v>15.33644467829893</v>
       </c>
       <c r="G10">
-        <v>10.38137997835362</v>
+        <v>13.20234690654872</v>
       </c>
       <c r="H10">
-        <v>5.120511928342367</v>
+        <v>10.42591450149086</v>
       </c>
       <c r="I10">
-        <v>6.015106787374075</v>
+        <v>13.82868073478298</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.026700844589162</v>
+        <v>13.7662743480966</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.63373822401486</v>
+        <v>18.47298461884097</v>
       </c>
       <c r="C11">
-        <v>22.53208449393504</v>
+        <v>13.66221254847846</v>
       </c>
       <c r="D11">
-        <v>6.616525302713565</v>
+        <v>4.457204219965171</v>
       </c>
       <c r="F11">
-        <v>11.3185552354099</v>
+        <v>15.28696478313611</v>
       </c>
       <c r="G11">
-        <v>10.8467136876894</v>
+        <v>13.10892836677364</v>
       </c>
       <c r="H11">
-        <v>5.030646958542976</v>
+        <v>10.38212476663279</v>
       </c>
       <c r="I11">
-        <v>5.72586075275392</v>
+        <v>13.73116214270111</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.964763512503716</v>
+        <v>13.68663537824361</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.01657129851663</v>
+        <v>18.68476923937947</v>
       </c>
       <c r="C12">
-        <v>22.79296180754882</v>
+        <v>13.80355255330399</v>
       </c>
       <c r="D12">
-        <v>6.690856264343194</v>
+        <v>4.493747108791802</v>
       </c>
       <c r="F12">
-        <v>11.40765819655545</v>
+        <v>15.26936925441486</v>
       </c>
       <c r="G12">
-        <v>11.02750381598042</v>
+        <v>13.07538779268815</v>
       </c>
       <c r="H12">
-        <v>4.997931935678502</v>
+        <v>10.36589759820145</v>
       </c>
       <c r="I12">
-        <v>5.617798510007221</v>
+        <v>13.69490113711167</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.945873382555128</v>
+        <v>13.65723984207003</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.93449602613682</v>
+        <v>18.63937572834691</v>
       </c>
       <c r="C13">
-        <v>22.73702211624825</v>
+        <v>13.77324406824677</v>
       </c>
       <c r="D13">
-        <v>6.674916911140414</v>
+        <v>4.48590616190743</v>
       </c>
       <c r="F13">
-        <v>11.38830202786992</v>
+        <v>15.27310780666402</v>
       </c>
       <c r="G13">
-        <v>10.98837111758731</v>
+        <v>13.08252905751286</v>
       </c>
       <c r="H13">
-        <v>5.00491707668622</v>
+        <v>10.36937661939926</v>
       </c>
       <c r="I13">
-        <v>5.641003855339184</v>
+        <v>13.70268095626738</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.949731464946813</v>
+        <v>13.66353673873425</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.66540304350391</v>
+        <v>18.49050653153665</v>
       </c>
       <c r="C14">
-        <v>22.55365738834476</v>
+        <v>13.67389992691232</v>
       </c>
       <c r="D14">
-        <v>6.622671714586866</v>
+        <v>4.460223767741364</v>
       </c>
       <c r="F14">
-        <v>11.32581080621931</v>
+        <v>15.2854942423978</v>
       </c>
       <c r="G14">
-        <v>10.86149828735466</v>
+        <v>13.1061319406993</v>
       </c>
       <c r="H14">
-        <v>5.027928355104664</v>
+        <v>10.38078263237279</v>
       </c>
       <c r="I14">
-        <v>5.71694009961472</v>
+        <v>13.72816556961296</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.96311532638975</v>
+        <v>13.68420169377149</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.49947785313721</v>
+        <v>18.39868140494679</v>
       </c>
       <c r="C15">
-        <v>22.44062407285206</v>
+        <v>13.61266405782693</v>
       </c>
       <c r="D15">
-        <v>6.590467560231305</v>
+        <v>4.444407286898413</v>
       </c>
       <c r="F15">
-        <v>11.28802070884502</v>
+        <v>15.2932303035256</v>
       </c>
       <c r="G15">
-        <v>10.78436748847347</v>
+        <v>13.12082963782007</v>
       </c>
       <c r="H15">
-        <v>5.042198612122344</v>
+        <v>10.38781538070675</v>
       </c>
       <c r="I15">
-        <v>5.763648951741287</v>
+        <v>13.74386245021611</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.971921256103658</v>
+        <v>13.69695893683468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.53176252013794</v>
+        <v>17.86269180104224</v>
       </c>
       <c r="C16">
-        <v>21.78188591003185</v>
+        <v>13.255880592781</v>
       </c>
       <c r="D16">
-        <v>6.402816609937729</v>
+        <v>4.352475299615676</v>
       </c>
       <c r="F16">
-        <v>11.07896338329637</v>
+        <v>15.33983736227839</v>
       </c>
       <c r="G16">
-        <v>10.35163561500393</v>
+        <v>13.20870646331595</v>
       </c>
       <c r="H16">
-        <v>5.126561723304555</v>
+        <v>10.42882595311042</v>
       </c>
       <c r="I16">
-        <v>6.034207658260821</v>
+        <v>13.83514728631997</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.031362425947929</v>
+        <v>13.77158534759206</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.92301408895666</v>
+        <v>17.52516679570333</v>
       </c>
       <c r="C17">
-        <v>21.36796978528163</v>
+        <v>13.03180824639877</v>
       </c>
       <c r="D17">
-        <v>6.284933119811287</v>
+        <v>4.294937973175614</v>
       </c>
       <c r="F17">
-        <v>10.95743190835191</v>
+        <v>15.3704490850473</v>
       </c>
       <c r="G17">
-        <v>10.133992795821</v>
+        <v>13.26583833488785</v>
       </c>
       <c r="H17">
-        <v>5.18052069252153</v>
+        <v>10.45461710729792</v>
       </c>
       <c r="I17">
-        <v>6.202660859654701</v>
+        <v>13.89233828560832</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.07546869539364</v>
+        <v>13.81871904028391</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.56732000148265</v>
+        <v>17.32783481026019</v>
       </c>
       <c r="C18">
-        <v>21.12629745244749</v>
+        <v>12.90103350321513</v>
       </c>
       <c r="D18">
-        <v>6.216114532576346</v>
+        <v>4.261431239014623</v>
       </c>
       <c r="F18">
-        <v>10.89000510428543</v>
+        <v>15.38879436233561</v>
       </c>
       <c r="G18">
-        <v>10.03324982057248</v>
+        <v>13.29986942200534</v>
       </c>
       <c r="H18">
-        <v>5.212328107545755</v>
+        <v>10.4696839735382</v>
       </c>
       <c r="I18">
-        <v>6.300424692544482</v>
+        <v>13.92567134592614</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.103499172099228</v>
+        <v>13.84632494346568</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.44593226223066</v>
+        <v>17.2604731796161</v>
       </c>
       <c r="C19">
-        <v>21.04385372106451</v>
+        <v>12.85643169116121</v>
       </c>
       <c r="D19">
-        <v>6.19263955159941</v>
+        <v>4.250016155077716</v>
       </c>
       <c r="F19">
-        <v>10.86760081057798</v>
+        <v>15.39513215977135</v>
       </c>
       <c r="G19">
-        <v>10.00001105830551</v>
+        <v>13.31159146090901</v>
       </c>
       <c r="H19">
-        <v>5.223226597384024</v>
+        <v>10.47482528752023</v>
       </c>
       <c r="I19">
-        <v>6.333673100219034</v>
+        <v>13.93703269737025</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.113433172784676</v>
+        <v>13.85575686938857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.98839134245993</v>
+        <v>17.56142787330138</v>
       </c>
       <c r="C20">
-        <v>21.41240441629966</v>
+        <v>13.0558575532514</v>
       </c>
       <c r="D20">
-        <v>6.297587114917548</v>
+        <v>4.301105786163683</v>
       </c>
       <c r="F20">
-        <v>10.97011307122601</v>
+        <v>15.36711391934495</v>
       </c>
       <c r="G20">
-        <v>10.15305003237374</v>
+        <v>13.25963511157869</v>
       </c>
       <c r="H20">
-        <v>5.174695966406402</v>
+        <v>10.45184753535103</v>
       </c>
       <c r="I20">
-        <v>6.184637565034457</v>
+        <v>13.88620485917544</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.070494744203806</v>
+        <v>13.81365023066777</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.74467090152901</v>
+        <v>18.53436609305609</v>
       </c>
       <c r="C21">
-        <v>22.60766550195347</v>
+        <v>13.7031599545737</v>
       </c>
       <c r="D21">
-        <v>6.638059590214166</v>
+        <v>4.467785110092377</v>
       </c>
       <c r="F21">
-        <v>11.34406446099628</v>
+        <v>15.28182497044398</v>
       </c>
       <c r="G21">
-        <v>10.89864333623053</v>
+        <v>13.09914905711375</v>
       </c>
       <c r="H21">
-        <v>5.021132632482469</v>
+        <v>10.37742277445804</v>
       </c>
       <c r="I21">
-        <v>5.694594709584598</v>
+        <v>13.72066203184704</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.959056658796148</v>
+        <v>13.67811118114257</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.84331961977445</v>
+        <v>19.14167500361069</v>
       </c>
       <c r="C22">
-        <v>23.35674729110658</v>
+        <v>14.10903064843134</v>
       </c>
       <c r="D22">
-        <v>6.851518972857185</v>
+        <v>4.572919092584408</v>
       </c>
       <c r="F22">
-        <v>11.61030919046582</v>
+        <v>15.23274231583271</v>
       </c>
       <c r="G22">
-        <v>11.43282949172782</v>
+        <v>13.00497787669047</v>
       </c>
       <c r="H22">
-        <v>4.928503922613463</v>
+        <v>10.33085139635326</v>
       </c>
       <c r="I22">
-        <v>5.38298227280241</v>
+        <v>13.6163579896001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.913037743079255</v>
+        <v>13.59397221610578</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.26143369147428</v>
+        <v>18.82015971745848</v>
       </c>
       <c r="C23">
-        <v>22.95988456226446</v>
+        <v>13.89399489862457</v>
       </c>
       <c r="D23">
-        <v>6.738420946861148</v>
+        <v>4.517160395856466</v>
       </c>
       <c r="F23">
-        <v>11.4662250145716</v>
+        <v>15.25832538217487</v>
       </c>
       <c r="G23">
-        <v>11.14544996112607</v>
+        <v>13.0542440948744</v>
       </c>
       <c r="H23">
-        <v>4.97718875513403</v>
+        <v>10.35551808169276</v>
       </c>
       <c r="I23">
-        <v>5.548449501588042</v>
+        <v>13.67167201968627</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.934995671623617</v>
+        <v>13.63847076839373</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.9588520950676</v>
+        <v>17.5450444689426</v>
       </c>
       <c r="C24">
-        <v>21.39232706357232</v>
+        <v>13.04499093976803</v>
       </c>
       <c r="D24">
-        <v>6.291869500862719</v>
+        <v>4.298318648837665</v>
       </c>
       <c r="F24">
-        <v>10.96437230585308</v>
+        <v>15.36861942440581</v>
       </c>
       <c r="G24">
-        <v>10.14441872750881</v>
+        <v>13.26243590028396</v>
       </c>
       <c r="H24">
-        <v>5.177326886958896</v>
+        <v>10.45309891376072</v>
       </c>
       <c r="I24">
-        <v>6.192783045894876</v>
+        <v>13.88897636941931</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.072735175695105</v>
+        <v>13.81594025705461</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.26253729840019</v>
+        <v>16.04754807621099</v>
       </c>
       <c r="C25">
-        <v>19.56401926277604</v>
+        <v>12.05706855908232</v>
       </c>
       <c r="D25">
-        <v>5.771425404205212</v>
+        <v>4.046581766019021</v>
       </c>
       <c r="F25">
-        <v>10.51745780513743</v>
+        <v>15.51575841838475</v>
       </c>
       <c r="G25">
-        <v>9.502947897799789</v>
+        <v>13.53157622285506</v>
       </c>
       <c r="H25">
-        <v>5.422351524313808</v>
+        <v>10.56724469479352</v>
       </c>
       <c r="I25">
-        <v>6.921099647223716</v>
+        <v>14.14014199453849</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.32131555244594</v>
+        <v>14.02631273582709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.84080812019566</v>
+        <v>25.09289710279099</v>
       </c>
       <c r="C2">
-        <v>11.26986716156531</v>
+        <v>18.10044118478598</v>
       </c>
       <c r="D2">
-        <v>3.869677050508472</v>
+        <v>5.355144050975601</v>
       </c>
       <c r="F2">
-        <v>15.64784758971977</v>
+        <v>10.26842727840112</v>
       </c>
       <c r="G2">
-        <v>13.76652313815327</v>
+        <v>9.200132318228023</v>
       </c>
       <c r="H2">
-        <v>10.65895552034227</v>
+        <v>5.624100380516673</v>
       </c>
       <c r="I2">
-        <v>14.33961575045192</v>
+        <v>7.483589083223628</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.19738615010222</v>
+        <v>7.574321677284687</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.95882645642748</v>
+        <v>23.50712174054536</v>
       </c>
       <c r="C3">
-        <v>10.70066776958554</v>
+        <v>17.03628732616384</v>
       </c>
       <c r="D3">
-        <v>3.745893094442527</v>
+        <v>5.052674190854297</v>
       </c>
       <c r="F3">
-        <v>15.75193083579618</v>
+        <v>10.14774060202413</v>
       </c>
       <c r="G3">
-        <v>13.94792005588849</v>
+        <v>9.097180009531325</v>
       </c>
       <c r="H3">
-        <v>10.72590190416732</v>
+        <v>5.772633645239768</v>
       </c>
       <c r="I3">
-        <v>14.48393346274043</v>
+        <v>7.880615087485154</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.32336227617294</v>
+        <v>7.78207883973467</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.38605718177017</v>
+        <v>22.47655579204464</v>
       </c>
       <c r="C4">
-        <v>10.33427683483231</v>
+        <v>16.34778898215357</v>
       </c>
       <c r="D4">
-        <v>3.667924757171807</v>
+        <v>4.857072944087091</v>
       </c>
       <c r="F4">
-        <v>15.82293656527337</v>
+        <v>10.09634796934469</v>
       </c>
       <c r="G4">
-        <v>14.0699823276107</v>
+        <v>9.081427651495629</v>
       </c>
       <c r="H4">
-        <v>10.76937522209283</v>
+        <v>5.869244437739849</v>
       </c>
       <c r="I4">
-        <v>14.57706995224686</v>
+        <v>8.132127269454415</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.40564674620291</v>
+        <v>7.92536165949483</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.14488168748407</v>
+        <v>22.04231259699172</v>
       </c>
       <c r="C5">
-        <v>10.18085086907751</v>
+        <v>16.05850739795761</v>
       </c>
       <c r="D5">
-        <v>3.635702219633206</v>
+        <v>4.774910488551049</v>
       </c>
       <c r="F5">
-        <v>15.85364382324834</v>
+        <v>10.08092474702904</v>
       </c>
       <c r="G5">
-        <v>14.12237318977746</v>
+        <v>9.086315626406202</v>
       </c>
       <c r="H5">
-        <v>10.78768686516834</v>
+        <v>5.909920756337173</v>
       </c>
       <c r="I5">
-        <v>14.61616438666758</v>
+        <v>8.236562820489594</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.440416642005</v>
+        <v>7.987407507648572</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.10436849939262</v>
+        <v>21.96934565995795</v>
       </c>
       <c r="C6">
-        <v>10.15513015070933</v>
+        <v>16.00995015504977</v>
       </c>
       <c r="D6">
-        <v>3.630325889678673</v>
+        <v>4.761120402283954</v>
       </c>
       <c r="F6">
-        <v>15.858849369712</v>
+        <v>10.07869081317973</v>
       </c>
       <c r="G6">
-        <v>14.13123160592693</v>
+        <v>9.087788993566802</v>
       </c>
       <c r="H6">
-        <v>10.79076350553369</v>
+        <v>5.916752495523887</v>
       </c>
       <c r="I6">
-        <v>14.62272495613541</v>
+        <v>8.254021593932121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.4462648756695</v>
+        <v>7.997922929702736</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.38283592509853</v>
+        <v>22.47075720038274</v>
       </c>
       <c r="C7">
-        <v>10.33222416426993</v>
+        <v>16.3439227332809</v>
       </c>
       <c r="D7">
-        <v>3.667491952858398</v>
+        <v>4.855974757590813</v>
       </c>
       <c r="F7">
-        <v>15.82334353735005</v>
+        <v>10.09611789673559</v>
       </c>
       <c r="G7">
-        <v>14.0706782098413</v>
+        <v>9.081448729370184</v>
       </c>
       <c r="H7">
-        <v>10.76961976584562</v>
+        <v>5.869787788654483</v>
       </c>
       <c r="I7">
-        <v>14.57759257170892</v>
+        <v>8.133527859268904</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.40611065458507</v>
+        <v>7.926183995188453</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.54322695243117</v>
+        <v>24.55793946855856</v>
       </c>
       <c r="C8">
-        <v>11.07718628251877</v>
+        <v>17.74086553358739</v>
       </c>
       <c r="D8">
-        <v>3.827429409225175</v>
+        <v>5.252920373640997</v>
       </c>
       <c r="F8">
-        <v>15.68225448076932</v>
+        <v>10.22199848062634</v>
       </c>
       <c r="G8">
-        <v>13.82682889014048</v>
+        <v>9.154457737531862</v>
       </c>
       <c r="H8">
-        <v>10.68154744085763</v>
+        <v>5.674157022042454</v>
       </c>
       <c r="I8">
-        <v>14.38843902702876</v>
+        <v>7.618874024099983</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.23979697620577</v>
+        <v>7.642507175867771</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.56823575948581</v>
+        <v>28.19935208570419</v>
       </c>
       <c r="C9">
-        <v>12.39931621284752</v>
+        <v>20.19820855242331</v>
       </c>
       <c r="D9">
-        <v>4.133408836959092</v>
+        <v>5.951902162074423</v>
       </c>
       <c r="F9">
-        <v>15.4624722817201</v>
+        <v>10.6554205932425</v>
       </c>
       <c r="G9">
-        <v>13.43509881480655</v>
+        <v>9.692674996209279</v>
       </c>
       <c r="H9">
-        <v>10.52760511817996</v>
+        <v>5.336275191172154</v>
       </c>
       <c r="I9">
-        <v>14.05328562706742</v>
+        <v>6.671580079666022</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.95292805383203</v>
+        <v>7.225671848750722</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.90077219586145</v>
+        <v>30.60047278940711</v>
       </c>
       <c r="C10">
-        <v>13.2811909521447</v>
+        <v>21.82862869601993</v>
       </c>
       <c r="D10">
-        <v>4.358984317764701</v>
+        <v>6.416130280114153</v>
       </c>
       <c r="F10">
-        <v>15.33644467829893</v>
+        <v>11.09316601386699</v>
       </c>
       <c r="G10">
-        <v>13.20234690654872</v>
+        <v>10.38137997835362</v>
       </c>
       <c r="H10">
-        <v>10.42591450149086</v>
+        <v>5.12051192834242</v>
       </c>
       <c r="I10">
-        <v>13.82868073478298</v>
+        <v>6.015106787374267</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.7662743480966</v>
+        <v>7.026700844589231</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.47298461884097</v>
+        <v>31.63373822401491</v>
       </c>
       <c r="C11">
-        <v>13.66221254847846</v>
+        <v>22.53208449393494</v>
       </c>
       <c r="D11">
-        <v>4.457204219965171</v>
+        <v>6.616525302713572</v>
       </c>
       <c r="F11">
-        <v>15.28696478313611</v>
+        <v>11.31855523540989</v>
       </c>
       <c r="G11">
-        <v>13.10892836677364</v>
+        <v>10.84671368768942</v>
       </c>
       <c r="H11">
-        <v>10.38212476663279</v>
+        <v>5.030646958542982</v>
       </c>
       <c r="I11">
-        <v>13.73116214270111</v>
+        <v>5.72586075275388</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.68663537824361</v>
+        <v>6.964763512503722</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.68476923937947</v>
+        <v>32.01657129851657</v>
       </c>
       <c r="C12">
-        <v>13.80355255330399</v>
+        <v>22.79296180754867</v>
       </c>
       <c r="D12">
-        <v>4.493747108791802</v>
+        <v>6.690856264343219</v>
       </c>
       <c r="F12">
-        <v>15.26936925441486</v>
+        <v>11.4076581965555</v>
       </c>
       <c r="G12">
-        <v>13.07538779268815</v>
+        <v>11.02750381598028</v>
       </c>
       <c r="H12">
-        <v>10.36589759820145</v>
+        <v>4.997931935678556</v>
       </c>
       <c r="I12">
-        <v>13.69490113711167</v>
+        <v>5.617798510007339</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.65723984207003</v>
+        <v>6.945873382555229</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.63937572834691</v>
+        <v>31.93449602613684</v>
       </c>
       <c r="C13">
-        <v>13.77324406824677</v>
+        <v>22.73702211624823</v>
       </c>
       <c r="D13">
-        <v>4.48590616190743</v>
+        <v>6.674916911140446</v>
       </c>
       <c r="F13">
-        <v>15.27310780666402</v>
+        <v>11.3883020278699</v>
       </c>
       <c r="G13">
-        <v>13.08252905751286</v>
+        <v>10.98837111758734</v>
       </c>
       <c r="H13">
-        <v>10.36937661939926</v>
+        <v>5.004917076686049</v>
       </c>
       <c r="I13">
-        <v>13.70268095626738</v>
+        <v>5.641003855339082</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.66353673873425</v>
+        <v>6.949731464946744</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.49050653153665</v>
+        <v>31.66540304350383</v>
       </c>
       <c r="C14">
-        <v>13.67389992691232</v>
+        <v>22.55365738834474</v>
       </c>
       <c r="D14">
-        <v>4.460223767741364</v>
+        <v>6.622671714586847</v>
       </c>
       <c r="F14">
-        <v>15.2854942423978</v>
+        <v>11.32581080621933</v>
       </c>
       <c r="G14">
-        <v>13.1061319406993</v>
+        <v>10.86149828735465</v>
       </c>
       <c r="H14">
-        <v>10.38078263237279</v>
+        <v>5.027928355104721</v>
       </c>
       <c r="I14">
-        <v>13.72816556961296</v>
+        <v>5.716940099614813</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.68420169377149</v>
+        <v>6.963115326389794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.39868140494679</v>
+        <v>31.49947785313722</v>
       </c>
       <c r="C15">
-        <v>13.61266405782693</v>
+        <v>22.4406240728521</v>
       </c>
       <c r="D15">
-        <v>4.444407286898413</v>
+        <v>6.590467560231299</v>
       </c>
       <c r="F15">
-        <v>15.2932303035256</v>
+        <v>11.28802070884498</v>
       </c>
       <c r="G15">
-        <v>13.12082963782007</v>
+        <v>10.78436748847355</v>
       </c>
       <c r="H15">
-        <v>10.38781538070675</v>
+        <v>5.04219861212223</v>
       </c>
       <c r="I15">
-        <v>13.74386245021611</v>
+        <v>5.763648951741184</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.69695893683468</v>
+        <v>6.971921256103611</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.86269180104224</v>
+        <v>30.53176252013794</v>
       </c>
       <c r="C16">
-        <v>13.255880592781</v>
+        <v>21.78188591003187</v>
       </c>
       <c r="D16">
-        <v>4.352475299615676</v>
+        <v>6.402816609937608</v>
       </c>
       <c r="F16">
-        <v>15.33983736227839</v>
+        <v>11.0789633832964</v>
       </c>
       <c r="G16">
-        <v>13.20870646331595</v>
+        <v>10.35163561500393</v>
       </c>
       <c r="H16">
-        <v>10.42882595311042</v>
+        <v>5.126561723304555</v>
       </c>
       <c r="I16">
-        <v>13.83514728631997</v>
+        <v>6.034207658260826</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.77158534759206</v>
+        <v>7.031362425947929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.52516679570333</v>
+        <v>29.92301408895668</v>
       </c>
       <c r="C17">
-        <v>13.03180824639877</v>
+        <v>21.36796978528157</v>
       </c>
       <c r="D17">
-        <v>4.294937973175614</v>
+        <v>6.284933119811279</v>
       </c>
       <c r="F17">
-        <v>15.3704490850473</v>
+        <v>10.95743190835189</v>
       </c>
       <c r="G17">
-        <v>13.26583833488785</v>
+        <v>10.13399279582097</v>
       </c>
       <c r="H17">
-        <v>10.45461710729792</v>
+        <v>5.180520692521527</v>
       </c>
       <c r="I17">
-        <v>13.89233828560832</v>
+        <v>6.20266085965467</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.81871904028391</v>
+        <v>7.075468695393631</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.32783481026019</v>
+        <v>29.56732000148263</v>
       </c>
       <c r="C18">
-        <v>12.90103350321513</v>
+        <v>21.12629745244748</v>
       </c>
       <c r="D18">
-        <v>4.261431239014623</v>
+        <v>6.216114532576364</v>
       </c>
       <c r="F18">
-        <v>15.38879436233561</v>
+        <v>10.89000510428544</v>
       </c>
       <c r="G18">
-        <v>13.29986942200534</v>
+        <v>10.03324982057246</v>
       </c>
       <c r="H18">
-        <v>10.4696839735382</v>
+        <v>5.212328107545755</v>
       </c>
       <c r="I18">
-        <v>13.92567134592614</v>
+        <v>6.30042469254455</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.84632494346568</v>
+        <v>7.103499172099268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.2604731796161</v>
+        <v>29.44593226223065</v>
       </c>
       <c r="C19">
-        <v>12.85643169116121</v>
+        <v>21.04385372106464</v>
       </c>
       <c r="D19">
-        <v>4.250016155077716</v>
+        <v>6.192639551599402</v>
       </c>
       <c r="F19">
-        <v>15.39513215977135</v>
+        <v>10.86760081057792</v>
       </c>
       <c r="G19">
-        <v>13.31159146090901</v>
+        <v>10.00001105830552</v>
       </c>
       <c r="H19">
-        <v>10.47482528752023</v>
+        <v>5.223226597383856</v>
       </c>
       <c r="I19">
-        <v>13.93703269737025</v>
+        <v>6.333673100218928</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.85575686938857</v>
+        <v>7.113433172784537</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.56142787330138</v>
+        <v>29.98839134245992</v>
       </c>
       <c r="C20">
-        <v>13.0558575532514</v>
+        <v>21.41240441629962</v>
       </c>
       <c r="D20">
-        <v>4.301105786163683</v>
+        <v>6.297587114917591</v>
       </c>
       <c r="F20">
-        <v>15.36711391934495</v>
+        <v>10.97011307122606</v>
       </c>
       <c r="G20">
-        <v>13.25963511157869</v>
+        <v>10.15305003237379</v>
       </c>
       <c r="H20">
-        <v>10.45184753535103</v>
+        <v>5.174695966406406</v>
       </c>
       <c r="I20">
-        <v>13.88620485917544</v>
+        <v>6.184637565034555</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.81365023066777</v>
+        <v>7.070494744203912</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.53436609305609</v>
+        <v>31.74467090152902</v>
       </c>
       <c r="C21">
-        <v>13.7031599545737</v>
+        <v>22.60766550195344</v>
       </c>
       <c r="D21">
-        <v>4.467785110092377</v>
+        <v>6.638059590214127</v>
       </c>
       <c r="F21">
-        <v>15.28182497044398</v>
+        <v>11.3440644609963</v>
       </c>
       <c r="G21">
-        <v>13.09914905711375</v>
+        <v>10.89864333623058</v>
       </c>
       <c r="H21">
-        <v>10.37742277445804</v>
+        <v>5.021132632482469</v>
       </c>
       <c r="I21">
-        <v>13.72066203184704</v>
+        <v>5.694594709584589</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.67811118114257</v>
+        <v>6.959056658796167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.14167500361069</v>
+        <v>32.84331961977452</v>
       </c>
       <c r="C22">
-        <v>14.10903064843134</v>
+        <v>23.3567472911065</v>
       </c>
       <c r="D22">
-        <v>4.572919092584408</v>
+        <v>6.851518972857232</v>
       </c>
       <c r="F22">
-        <v>15.23274231583271</v>
+        <v>11.6103091904658</v>
       </c>
       <c r="G22">
-        <v>13.00497787669047</v>
+        <v>11.4328294917279</v>
       </c>
       <c r="H22">
-        <v>10.33085139635326</v>
+        <v>4.928503922613463</v>
       </c>
       <c r="I22">
-        <v>13.6163579896001</v>
+        <v>5.382982272802277</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.59397221610578</v>
+        <v>6.913037743079209</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.82015971745848</v>
+        <v>32.26143369147434</v>
       </c>
       <c r="C23">
-        <v>13.89399489862457</v>
+        <v>22.95988456226438</v>
       </c>
       <c r="D23">
-        <v>4.517160395856466</v>
+        <v>6.73842094686118</v>
       </c>
       <c r="F23">
-        <v>15.25832538217487</v>
+        <v>11.46622501457162</v>
       </c>
       <c r="G23">
-        <v>13.0542440948744</v>
+        <v>11.14544996112619</v>
       </c>
       <c r="H23">
-        <v>10.35551808169276</v>
+        <v>4.977188755134049</v>
       </c>
       <c r="I23">
-        <v>13.67167201968627</v>
+        <v>5.548449501587928</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.63847076839373</v>
+        <v>6.934995671623616</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.5450444689426</v>
+        <v>29.95885209506761</v>
       </c>
       <c r="C24">
-        <v>13.04499093976803</v>
+        <v>21.39232706357232</v>
       </c>
       <c r="D24">
-        <v>4.298318648837665</v>
+        <v>6.29186950086275</v>
       </c>
       <c r="F24">
-        <v>15.36861942440581</v>
+        <v>10.96437230585304</v>
       </c>
       <c r="G24">
-        <v>13.26243590028396</v>
+        <v>10.14441872750887</v>
       </c>
       <c r="H24">
-        <v>10.45309891376072</v>
+        <v>5.177326886958906</v>
       </c>
       <c r="I24">
-        <v>13.88897636941931</v>
+        <v>6.192783045894736</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.81594025705461</v>
+        <v>7.072735175695042</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.04754807621099</v>
+        <v>27.26253729840021</v>
       </c>
       <c r="C25">
-        <v>12.05706855908232</v>
+        <v>19.56401926277606</v>
       </c>
       <c r="D25">
-        <v>4.046581766019021</v>
+        <v>5.7714254042052</v>
       </c>
       <c r="F25">
-        <v>15.51575841838475</v>
+        <v>10.51745780513735</v>
       </c>
       <c r="G25">
-        <v>13.53157622285506</v>
+        <v>9.502947897799654</v>
       </c>
       <c r="H25">
-        <v>10.56724469479352</v>
+        <v>5.422351524313753</v>
       </c>
       <c r="I25">
-        <v>14.14014199453849</v>
+        <v>6.92109964722358</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.02631273582709</v>
+        <v>7.3213155524458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.09289710279099</v>
+        <v>14.3601780042382</v>
       </c>
       <c r="C2">
-        <v>18.10044118478598</v>
+        <v>9.135108809476389</v>
       </c>
       <c r="D2">
-        <v>5.355144050975601</v>
+        <v>5.531636182857088</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.26842727840112</v>
+        <v>16.81130028491246</v>
       </c>
       <c r="G2">
-        <v>9.200132318228023</v>
+        <v>20.40716201178529</v>
       </c>
       <c r="H2">
-        <v>5.624100380516673</v>
+        <v>2.186860999138338</v>
       </c>
       <c r="I2">
-        <v>7.483589083223628</v>
+        <v>2.948929849902492</v>
+      </c>
+      <c r="J2">
+        <v>8.739755055818902</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.8469757933941</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.90302044661358</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.65239245537421</v>
       </c>
       <c r="O2">
-        <v>7.574321677284687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.9225136677241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.50712174054536</v>
+        <v>13.43910210323835</v>
       </c>
       <c r="C3">
-        <v>17.03628732616384</v>
+        <v>9.031420300577004</v>
       </c>
       <c r="D3">
-        <v>5.052674190854297</v>
+        <v>5.304358535886875</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.14774060202413</v>
+        <v>16.62074607788338</v>
       </c>
       <c r="G3">
-        <v>9.097180009531325</v>
+        <v>20.25702923837293</v>
       </c>
       <c r="H3">
-        <v>5.772633645239768</v>
+        <v>2.361540254150822</v>
       </c>
       <c r="I3">
-        <v>7.880615087485154</v>
+        <v>3.083009826468542</v>
+      </c>
+      <c r="J3">
+        <v>8.791663123567234</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.93323014662256</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11.32130146870141</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.295586200987671</v>
       </c>
       <c r="O3">
-        <v>7.78207883973467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.95880140247225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.47655579204464</v>
+        <v>12.83848796470969</v>
       </c>
       <c r="C4">
-        <v>16.34778898215357</v>
+        <v>8.966259255996865</v>
       </c>
       <c r="D4">
-        <v>4.857072944087091</v>
+        <v>5.159389579957815</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>10.09634796934469</v>
+        <v>16.51071032465744</v>
       </c>
       <c r="G4">
-        <v>9.081427651495629</v>
+        <v>20.17512597261482</v>
       </c>
       <c r="H4">
-        <v>5.869244437739849</v>
+        <v>2.472939453880191</v>
       </c>
       <c r="I4">
-        <v>8.132127269454415</v>
+        <v>3.169224753852226</v>
+      </c>
+      <c r="J4">
+        <v>8.826080197889439</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.98959942376374</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10.94803639406874</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.068279733387358</v>
       </c>
       <c r="O4">
-        <v>7.92536165949483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.98659186040732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.04231259699172</v>
+        <v>12.58237027742209</v>
       </c>
       <c r="C5">
-        <v>16.05850739795761</v>
+        <v>8.94080598359383</v>
       </c>
       <c r="D5">
-        <v>4.774910488551049</v>
+        <v>5.100473767997012</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>10.08092474702904</v>
+        <v>16.46098614535662</v>
       </c>
       <c r="G5">
-        <v>9.086315626406202</v>
+        <v>20.1329006993567</v>
       </c>
       <c r="H5">
-        <v>5.909920756337173</v>
+        <v>2.51967330965367</v>
       </c>
       <c r="I5">
-        <v>8.236562820489594</v>
+        <v>3.208088144467603</v>
+      </c>
+      <c r="J5">
+        <v>8.838966410437402</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.0084860347746</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10.79372025403134</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.973486345408314</v>
       </c>
       <c r="O5">
-        <v>7.987407507648572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.99475281099155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.96934565995795</v>
+        <v>12.53620432500289</v>
       </c>
       <c r="C6">
-        <v>16.00995015504977</v>
+        <v>8.938408709888417</v>
       </c>
       <c r="D6">
-        <v>4.761120402283954</v>
+        <v>5.092427078364588</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>10.07869081317973</v>
+        <v>16.44471320532147</v>
       </c>
       <c r="G6">
-        <v>9.087788993566802</v>
+        <v>20.11212826663718</v>
       </c>
       <c r="H6">
-        <v>5.916752495523887</v>
+        <v>2.527843779074743</v>
       </c>
       <c r="I6">
-        <v>8.254021593932121</v>
+        <v>3.218133086228082</v>
+      </c>
+      <c r="J6">
+        <v>8.838985270778368</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.00566061916705</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10.76997963509253</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.957404313438686</v>
       </c>
       <c r="O6">
-        <v>7.997922929702736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.99067809777557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.47075720038274</v>
+        <v>12.82678908407512</v>
       </c>
       <c r="C7">
-        <v>16.3439227332809</v>
+        <v>8.971014714206225</v>
       </c>
       <c r="D7">
-        <v>4.855974757590813</v>
+        <v>5.163503583662972</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>10.09611789673559</v>
+        <v>16.48795391159699</v>
       </c>
       <c r="G7">
-        <v>9.081448729370184</v>
+        <v>20.13667581212229</v>
       </c>
       <c r="H7">
-        <v>5.869787788654483</v>
+        <v>2.474492295799317</v>
       </c>
       <c r="I7">
-        <v>8.133527859268904</v>
+        <v>3.179082733719332</v>
+      </c>
+      <c r="J7">
+        <v>8.82036874814057</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.97345074885613</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10.95167846226668</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.066414378078667</v>
       </c>
       <c r="O7">
-        <v>7.926183995188453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.97167309162605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.55793946855856</v>
+        <v>14.03974091674656</v>
       </c>
       <c r="C8">
-        <v>17.74086553358739</v>
+        <v>9.106663735916753</v>
       </c>
       <c r="D8">
-        <v>5.252920373640997</v>
+        <v>5.46066358209085</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>10.22199848062634</v>
+        <v>16.71547781654956</v>
       </c>
       <c r="G8">
-        <v>9.154457737531862</v>
+        <v>20.30381357218472</v>
       </c>
       <c r="H8">
-        <v>5.674157022042454</v>
+        <v>2.247380729398143</v>
       </c>
       <c r="I8">
-        <v>7.618874024099983</v>
+        <v>3.006280186704948</v>
+      </c>
+      <c r="J8">
+        <v>8.749385999853022</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.85440575760714</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.7130483256915</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.53041731624136</v>
       </c>
       <c r="O8">
-        <v>7.642507175867771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.91410619012053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19935208570419</v>
+        <v>16.15384074046215</v>
       </c>
       <c r="C9">
-        <v>20.19820855242331</v>
+        <v>9.351791421474054</v>
       </c>
       <c r="D9">
-        <v>5.951902162074423</v>
+        <v>5.990572440807384</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>10.6554205932425</v>
+        <v>17.255027088753</v>
       </c>
       <c r="G9">
-        <v>9.692674996209279</v>
+        <v>20.78195032396796</v>
       </c>
       <c r="H9">
-        <v>5.336275191172154</v>
+        <v>1.832876745715544</v>
       </c>
       <c r="I9">
-        <v>6.671580079666022</v>
+        <v>2.682676540030942</v>
+      </c>
+      <c r="J9">
+        <v>8.641457904868984</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.67811947494791</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>13.06511138917507</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.37265984245612</v>
       </c>
       <c r="O9">
-        <v>7.225671848750722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.87355166672594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.60047278940711</v>
+        <v>17.50463395390106</v>
       </c>
       <c r="C10">
-        <v>21.82862869601993</v>
+        <v>9.560780290031035</v>
       </c>
       <c r="D10">
-        <v>6.416130280114153</v>
+        <v>6.374135302268918</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>11.09316601386699</v>
+        <v>17.57598156461695</v>
       </c>
       <c r="G10">
-        <v>10.38137997835362</v>
+        <v>20.99888529820766</v>
       </c>
       <c r="H10">
-        <v>5.12051192834242</v>
+        <v>1.584083568738103</v>
       </c>
       <c r="I10">
-        <v>6.015106787374267</v>
+        <v>2.496872187658298</v>
+      </c>
+      <c r="J10">
+        <v>8.545671687367326</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.48299658949254</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13.9999541438646</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.760434664261744</v>
       </c>
       <c r="O10">
-        <v>7.026700844589231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.7972742022595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.63373822401491</v>
+        <v>17.80952734389589</v>
       </c>
       <c r="C11">
-        <v>22.53208449393494</v>
+        <v>10.04780338982328</v>
       </c>
       <c r="D11">
-        <v>6.616525302713572</v>
+        <v>6.731059061124549</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>11.31855523540989</v>
+        <v>16.85016049774152</v>
       </c>
       <c r="G11">
-        <v>10.84671368768942</v>
+        <v>19.58539016656597</v>
       </c>
       <c r="H11">
-        <v>5.030646958542982</v>
+        <v>2.684959508929758</v>
       </c>
       <c r="I11">
-        <v>5.72586075275388</v>
+        <v>2.558170954915835</v>
+      </c>
+      <c r="J11">
+        <v>8.261816634046149</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.73876717473241</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>14.61493400832685</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.37680964164989</v>
       </c>
       <c r="O11">
-        <v>6.964763512503722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.14617763186889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.01657129851657</v>
+        <v>17.80192733857837</v>
       </c>
       <c r="C12">
-        <v>22.79296180754867</v>
+        <v>10.52233614828964</v>
       </c>
       <c r="D12">
-        <v>6.690856264343219</v>
+        <v>6.951659678712406</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>11.4076581965555</v>
+        <v>16.18815037923014</v>
       </c>
       <c r="G12">
-        <v>11.02750381598028</v>
+        <v>18.39068717075048</v>
       </c>
       <c r="H12">
-        <v>4.997931935678556</v>
+        <v>4.10897986205558</v>
       </c>
       <c r="I12">
-        <v>5.617798510007339</v>
+        <v>2.563856740620595</v>
+      </c>
+      <c r="J12">
+        <v>8.05237665911147</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.20826434852155</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>14.94050187685694</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.19558716347515</v>
       </c>
       <c r="O12">
-        <v>6.945873382555229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.63605881085558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.93449602613684</v>
+        <v>17.54392784165127</v>
       </c>
       <c r="C13">
-        <v>22.73702211624823</v>
+        <v>11.00763747278655</v>
       </c>
       <c r="D13">
-        <v>6.674916911140446</v>
+        <v>7.09148976676618</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>11.3883020278699</v>
+        <v>15.49455538609172</v>
       </c>
       <c r="G13">
-        <v>10.98837111758734</v>
+        <v>17.22968540041553</v>
       </c>
       <c r="H13">
-        <v>5.004917076686049</v>
+        <v>5.550986604214773</v>
       </c>
       <c r="I13">
-        <v>5.641003855339082</v>
+        <v>2.53306362348894</v>
+      </c>
+      <c r="J13">
+        <v>7.879265219796008</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.79201518034049</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>15.07832399560034</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.120946808264207</v>
       </c>
       <c r="O13">
-        <v>6.949731464946744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.18210759180997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.66540304350383</v>
+        <v>17.24455089248935</v>
       </c>
       <c r="C14">
-        <v>22.55365738834474</v>
+        <v>11.36349016418087</v>
       </c>
       <c r="D14">
-        <v>6.622671714586847</v>
+        <v>7.155746829721113</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>11.32581080621933</v>
+        <v>14.98813938896531</v>
       </c>
       <c r="G14">
-        <v>10.86149828735465</v>
+        <v>16.42927439420197</v>
       </c>
       <c r="H14">
-        <v>5.027928355104721</v>
+        <v>6.56674995587472</v>
       </c>
       <c r="I14">
-        <v>5.716940099614813</v>
+        <v>2.506537314147102</v>
+      </c>
+      <c r="J14">
+        <v>7.77489698119412</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.56006091289686</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>15.09310015557788</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.470428080681961</v>
       </c>
       <c r="O14">
-        <v>6.963115326389794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.89087321636818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.49947785313722</v>
+        <v>17.11416915831007</v>
       </c>
       <c r="C15">
-        <v>22.4406240728521</v>
+        <v>11.44494496187503</v>
       </c>
       <c r="D15">
-        <v>6.590467560231299</v>
+        <v>7.155591156303649</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>11.28802070884498</v>
+        <v>14.85239385682161</v>
       </c>
       <c r="G15">
-        <v>10.78436748847355</v>
+        <v>16.23246765337846</v>
       </c>
       <c r="H15">
-        <v>5.04219861212223</v>
+        <v>6.80245005589294</v>
       </c>
       <c r="I15">
-        <v>5.763648951741184</v>
+        <v>2.529056480358392</v>
+      </c>
+      <c r="J15">
+        <v>7.755577874045884</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.52080313986297</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>15.05797663934479</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.329693376074096</v>
       </c>
       <c r="O15">
-        <v>6.971921256103611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.82802059393183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.53176252013794</v>
+        <v>16.59080464621085</v>
       </c>
       <c r="C16">
-        <v>21.78188591003187</v>
+        <v>11.2607813059602</v>
       </c>
       <c r="D16">
-        <v>6.402816609937608</v>
+        <v>6.979005167361328</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11.0789633832964</v>
+        <v>14.8233501045189</v>
       </c>
       <c r="G16">
-        <v>10.35163561500393</v>
+        <v>16.33830309419557</v>
       </c>
       <c r="H16">
-        <v>5.126561723304555</v>
+        <v>6.597115276663988</v>
       </c>
       <c r="I16">
-        <v>6.034207658260826</v>
+        <v>2.618156112813479</v>
+      </c>
+      <c r="J16">
+        <v>7.829277818708757</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.68724753032338</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>14.65765676842761</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.333560209025283</v>
       </c>
       <c r="O16">
-        <v>7.031362425947929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.94603334923242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.92301408895668</v>
+        <v>16.34754567784241</v>
       </c>
       <c r="C17">
-        <v>21.36796978528157</v>
+        <v>10.9189810316879</v>
       </c>
       <c r="D17">
-        <v>6.284933119811279</v>
+        <v>6.805496968115861</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>10.95743190835189</v>
+        <v>15.07472435523622</v>
       </c>
       <c r="G17">
-        <v>10.13399279582097</v>
+        <v>16.84317283948303</v>
       </c>
       <c r="H17">
-        <v>5.180520692521527</v>
+        <v>5.867885518248777</v>
       </c>
       <c r="I17">
-        <v>6.20266085965467</v>
+        <v>2.666584066906037</v>
+      </c>
+      <c r="J17">
+        <v>7.940345589227013</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.93098143513738</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>14.33626810348812</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.661009563619964</v>
       </c>
       <c r="O17">
-        <v>7.075468695393631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.18862228958095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.56732000148263</v>
+        <v>16.33238518661177</v>
       </c>
       <c r="C18">
-        <v>21.12629745244748</v>
+        <v>10.4315313187314</v>
       </c>
       <c r="D18">
-        <v>6.216114532576364</v>
+        <v>6.614195397883041</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>10.89000510428544</v>
+        <v>15.60829281165636</v>
       </c>
       <c r="G18">
-        <v>10.03324982057246</v>
+        <v>17.78057333785081</v>
       </c>
       <c r="H18">
-        <v>5.212328107545755</v>
+        <v>4.629567678376644</v>
       </c>
       <c r="I18">
-        <v>6.30042469254455</v>
+        <v>2.671940429303917</v>
+      </c>
+      <c r="J18">
+        <v>8.102195955921314</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.30193411698515</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>14.04822204837783</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.425955512183931</v>
       </c>
       <c r="O18">
-        <v>7.103499172099268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.58115949920796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.44593226223065</v>
+        <v>16.49073016963265</v>
       </c>
       <c r="C19">
-        <v>21.04385372106464</v>
+        <v>9.963797548783091</v>
       </c>
       <c r="D19">
-        <v>6.192639551599402</v>
+        <v>6.435736912730951</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>10.86760081057792</v>
+        <v>16.29057568966753</v>
       </c>
       <c r="G19">
-        <v>10.00001105830552</v>
+        <v>18.95007203876186</v>
       </c>
       <c r="H19">
-        <v>5.223226597383856</v>
+        <v>3.168898384193574</v>
       </c>
       <c r="I19">
-        <v>6.333673100218928</v>
+        <v>2.659511951292933</v>
+      </c>
+      <c r="J19">
+        <v>8.288078833679569</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.76168587093806</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>13.82383550245646</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.595402114278416</v>
       </c>
       <c r="O19">
-        <v>7.113433172784537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.05214416235257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.98839134245992</v>
+        <v>17.1395241126506</v>
       </c>
       <c r="C20">
-        <v>21.41240441629962</v>
+        <v>9.526615251342641</v>
       </c>
       <c r="D20">
-        <v>6.297587114917591</v>
+        <v>6.289820500104942</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>10.97011307122606</v>
+        <v>17.42131032529453</v>
       </c>
       <c r="G20">
-        <v>10.15305003237379</v>
+        <v>20.81957597258374</v>
       </c>
       <c r="H20">
-        <v>5.174695966406406</v>
+        <v>1.649707990219309</v>
       </c>
       <c r="I20">
-        <v>6.184637565034555</v>
+        <v>2.561137795282519</v>
+      </c>
+      <c r="J20">
+        <v>8.550807612600439</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.47983367782952</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>13.77659431646182</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.650853309295018</v>
       </c>
       <c r="O20">
-        <v>7.070494744203912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.76660287178371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.74467090152902</v>
+        <v>18.17713884481432</v>
       </c>
       <c r="C21">
-        <v>22.60766550195344</v>
+        <v>9.631206667615995</v>
       </c>
       <c r="D21">
-        <v>6.638059590214127</v>
+        <v>6.53887933544469</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>11.3440644609963</v>
+        <v>17.84422543918424</v>
       </c>
       <c r="G21">
-        <v>10.89864333623058</v>
+        <v>21.29354268169281</v>
       </c>
       <c r="H21">
-        <v>5.021132632482469</v>
+        <v>1.707538628489865</v>
       </c>
       <c r="I21">
-        <v>5.694594709584589</v>
+        <v>2.620636093860317</v>
+      </c>
+      <c r="J21">
+        <v>8.5280329463098</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.46483253326334</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>14.42674368365112</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.22213299294754</v>
       </c>
       <c r="O21">
-        <v>6.959056658796167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.83665727785877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.84331961977452</v>
+        <v>18.8165814566009</v>
       </c>
       <c r="C22">
-        <v>23.3567472911065</v>
+        <v>9.707933459541961</v>
       </c>
       <c r="D22">
-        <v>6.851518972857232</v>
+        <v>6.701677951572382</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>11.6103091904658</v>
+        <v>18.10144908686954</v>
       </c>
       <c r="G22">
-        <v>11.4328294917279</v>
+        <v>21.57092465562047</v>
       </c>
       <c r="H22">
-        <v>4.928503922613463</v>
+        <v>1.841526438622044</v>
       </c>
       <c r="I22">
-        <v>5.382982272802277</v>
+        <v>2.718796037693753</v>
+      </c>
+      <c r="J22">
+        <v>8.509480145952766</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.4410507620753</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>14.84180001867296</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.49131318165501</v>
       </c>
       <c r="O22">
-        <v>6.913037743079209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.87198446280354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.26143369147434</v>
+        <v>18.48514236113633</v>
       </c>
       <c r="C23">
-        <v>22.95988456226438</v>
+        <v>9.660076551915799</v>
       </c>
       <c r="D23">
-        <v>6.73842094686118</v>
+        <v>6.61046516368929</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>11.46622501457162</v>
+        <v>17.98713905765486</v>
       </c>
       <c r="G23">
-        <v>11.14544996112619</v>
+        <v>21.4629315394794</v>
       </c>
       <c r="H23">
-        <v>4.977188755134049</v>
+        <v>1.771100021319343</v>
       </c>
       <c r="I23">
-        <v>5.548449501587928</v>
+        <v>2.661254538916546</v>
+      </c>
+      <c r="J23">
+        <v>8.525880324537745</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.47230751160929</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>14.61630328390734</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.34892826214444</v>
       </c>
       <c r="O23">
-        <v>6.934995671623616</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.86963211846114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.95885209506761</v>
+        <v>17.1586674273971</v>
       </c>
       <c r="C24">
-        <v>21.39232706357232</v>
+        <v>9.487942082205695</v>
       </c>
       <c r="D24">
-        <v>6.29186950086275</v>
+        <v>6.261202838349917</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>10.96437230585304</v>
+        <v>17.52939515877361</v>
       </c>
       <c r="G24">
-        <v>10.14441872750887</v>
+        <v>21.01189038569553</v>
       </c>
       <c r="H24">
-        <v>5.177326886958906</v>
+        <v>1.625835492344555</v>
       </c>
       <c r="I24">
-        <v>6.192783045894736</v>
+        <v>2.539467424380243</v>
+      </c>
+      <c r="J24">
+        <v>8.583216390036398</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.56925037552606</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>13.73842768220893</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.790874095543076</v>
       </c>
       <c r="O24">
-        <v>7.072735175695042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.84730648115776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.26253729840021</v>
+        <v>15.59904886205211</v>
       </c>
       <c r="C25">
-        <v>19.56401926277606</v>
+        <v>9.296751180681838</v>
       </c>
       <c r="D25">
-        <v>5.7714254042052</v>
+        <v>5.86025014807999</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>10.51745780513735</v>
+        <v>17.06524454079274</v>
       </c>
       <c r="G25">
-        <v>9.502947897799654</v>
+        <v>20.57742670623125</v>
       </c>
       <c r="H25">
-        <v>5.422351524313753</v>
+        <v>1.943049442029444</v>
       </c>
       <c r="I25">
-        <v>6.92109964722358</v>
+        <v>2.78441082404231</v>
+      </c>
+      <c r="J25">
+        <v>8.657857938772691</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.69339666693484</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>12.72309289568883</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.151734541110422</v>
       </c>
       <c r="O25">
-        <v>7.3213155524458</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.85264530391286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.3601780042382</v>
+        <v>14.30516119558771</v>
       </c>
       <c r="C2">
-        <v>9.135108809476389</v>
+        <v>8.79100236322488</v>
       </c>
       <c r="D2">
-        <v>5.531636182857088</v>
+        <v>5.577569324882521</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.81130028491246</v>
+        <v>16.35878983977583</v>
       </c>
       <c r="G2">
-        <v>20.40716201178529</v>
+        <v>18.98994029647948</v>
       </c>
       <c r="H2">
-        <v>2.186860999138338</v>
+        <v>2.100800830169882</v>
       </c>
       <c r="I2">
-        <v>2.948929849902492</v>
+        <v>2.846655575207865</v>
       </c>
       <c r="J2">
-        <v>8.739755055818902</v>
+        <v>8.993651839961316</v>
       </c>
       <c r="K2">
-        <v>14.8469757933941</v>
+        <v>14.34385815083906</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.00123681890244</v>
       </c>
       <c r="M2">
-        <v>11.90302044661358</v>
+        <v>9.198147495221038</v>
       </c>
       <c r="N2">
-        <v>8.65239245537421</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.98821908378554</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.705082588372953</v>
       </c>
       <c r="Q2">
-        <v>13.9225136677241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.565369331145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.43910210323835</v>
+        <v>13.41101479853882</v>
       </c>
       <c r="C3">
-        <v>9.031420300577004</v>
+        <v>8.638767517849187</v>
       </c>
       <c r="D3">
-        <v>5.304358535886875</v>
+        <v>5.331268818424314</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.62074607788338</v>
+        <v>16.21432720868057</v>
       </c>
       <c r="G3">
-        <v>20.25702923837293</v>
+        <v>18.94505956677025</v>
       </c>
       <c r="H3">
-        <v>2.361540254150822</v>
+        <v>2.264516990692245</v>
       </c>
       <c r="I3">
-        <v>3.083009826468542</v>
+        <v>2.966754354725298</v>
       </c>
       <c r="J3">
-        <v>8.791663123567234</v>
+        <v>9.025432108892062</v>
       </c>
       <c r="K3">
-        <v>14.93323014662256</v>
+        <v>14.45695272926378</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.15636833392688</v>
       </c>
       <c r="M3">
-        <v>11.32130146870141</v>
+        <v>9.244498413261649</v>
       </c>
       <c r="N3">
-        <v>8.295586200987671</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.39265842110554</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.35682788457822</v>
       </c>
       <c r="Q3">
-        <v>13.95880140247225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.63011563607035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83848796470969</v>
+        <v>12.82820640076644</v>
       </c>
       <c r="C4">
-        <v>8.966259255996865</v>
+        <v>8.544229681609577</v>
       </c>
       <c r="D4">
-        <v>5.159389579957815</v>
+        <v>5.174106943046251</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.51071032465744</v>
+        <v>16.13168168740192</v>
       </c>
       <c r="G4">
-        <v>20.17512597261482</v>
+        <v>18.92925583730507</v>
       </c>
       <c r="H4">
-        <v>2.472939453880191</v>
+        <v>2.368963427370337</v>
       </c>
       <c r="I4">
-        <v>3.169224753852226</v>
+        <v>3.044295338533662</v>
       </c>
       <c r="J4">
-        <v>8.826080197889439</v>
+        <v>9.046039890495944</v>
       </c>
       <c r="K4">
-        <v>14.98959942376374</v>
+        <v>14.52879847457633</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.2540668903183</v>
       </c>
       <c r="M4">
-        <v>10.94803639406874</v>
+        <v>9.2898664411367</v>
       </c>
       <c r="N4">
-        <v>8.068279733387358</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.01062324217966</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.135269340650547</v>
       </c>
       <c r="Q4">
-        <v>13.98659186040732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.67440765072451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.58237027742209</v>
+        <v>12.579728878212</v>
       </c>
       <c r="C5">
-        <v>8.94080598359383</v>
+        <v>8.507625218587894</v>
       </c>
       <c r="D5">
-        <v>5.100473767997012</v>
+        <v>5.110110496294844</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.46098614535662</v>
+        <v>16.09301655920133</v>
       </c>
       <c r="G5">
-        <v>20.1329006993567</v>
+        <v>18.91440129952259</v>
       </c>
       <c r="H5">
-        <v>2.51967330965367</v>
+        <v>2.412802197134041</v>
       </c>
       <c r="I5">
-        <v>3.208088144467603</v>
+        <v>3.080081347884974</v>
       </c>
       <c r="J5">
-        <v>8.838966410437402</v>
+        <v>9.052983639237342</v>
       </c>
       <c r="K5">
-        <v>15.0084860347746</v>
+        <v>14.55398748537789</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.28994000882011</v>
       </c>
       <c r="M5">
-        <v>10.79372025403134</v>
+        <v>9.310116950848919</v>
       </c>
       <c r="N5">
-        <v>7.973486345408314</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.85266305415273</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.042947631523582</v>
       </c>
       <c r="Q5">
-        <v>13.99475281099155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.68919886719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.53620432500289</v>
+        <v>12.53491504933578</v>
       </c>
       <c r="C6">
-        <v>8.938408709888417</v>
+        <v>8.504245271877831</v>
       </c>
       <c r="D6">
-        <v>5.092427078364588</v>
+        <v>5.101223606456091</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.44471320532147</v>
+        <v>16.07874623876796</v>
       </c>
       <c r="G6">
-        <v>20.11212826663718</v>
+        <v>18.8983592417458</v>
       </c>
       <c r="H6">
-        <v>2.527843779074743</v>
+        <v>2.420482431460126</v>
       </c>
       <c r="I6">
-        <v>3.218133086228082</v>
+        <v>3.090247763268921</v>
       </c>
       <c r="J6">
-        <v>8.838985270778368</v>
+        <v>9.052043846504114</v>
       </c>
       <c r="K6">
-        <v>15.00566061916705</v>
+        <v>14.55249068865797</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.29037659742085</v>
       </c>
       <c r="M6">
-        <v>10.76997963509253</v>
+        <v>9.310748580138295</v>
       </c>
       <c r="N6">
-        <v>7.957404313438686</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.82829722715089</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.027285948979593</v>
       </c>
       <c r="Q6">
-        <v>13.99067809777557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.68639184265074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.82678908407512</v>
+        <v>12.81756778248912</v>
       </c>
       <c r="C7">
-        <v>8.971014714206225</v>
+        <v>8.549255904629147</v>
       </c>
       <c r="D7">
-        <v>5.163503583662972</v>
+        <v>5.181220645984679</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.48795391159699</v>
+        <v>16.09701480994801</v>
       </c>
       <c r="G7">
-        <v>20.13667581212229</v>
+        <v>18.96058711523441</v>
       </c>
       <c r="H7">
-        <v>2.474492295799317</v>
+        <v>2.370802868157267</v>
       </c>
       <c r="I7">
-        <v>3.179082733719332</v>
+        <v>3.056195007938924</v>
       </c>
       <c r="J7">
-        <v>8.82036874814057</v>
+        <v>9.011447950675418</v>
       </c>
       <c r="K7">
-        <v>14.97345074885613</v>
+        <v>14.50789325679539</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.23439524954219</v>
       </c>
       <c r="M7">
-        <v>10.95167846226668</v>
+        <v>9.278385370102109</v>
       </c>
       <c r="N7">
-        <v>8.066414378078667</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.01299836185815</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.133221639081615</v>
       </c>
       <c r="Q7">
-        <v>13.97167309162605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.65177628216512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.03974091674656</v>
+        <v>13.99639971627628</v>
       </c>
       <c r="C8">
-        <v>9.106663735916753</v>
+        <v>8.742752212903101</v>
       </c>
       <c r="D8">
-        <v>5.46066358209085</v>
+        <v>5.509876790673117</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.71547781654956</v>
+        <v>16.23871143327926</v>
       </c>
       <c r="G8">
-        <v>20.30381357218472</v>
+        <v>19.15261691830093</v>
       </c>
       <c r="H8">
-        <v>2.247380729398143</v>
+        <v>2.158610729347223</v>
       </c>
       <c r="I8">
-        <v>3.006280186704948</v>
+        <v>2.902613386338042</v>
       </c>
       <c r="J8">
-        <v>8.749385999853022</v>
+        <v>8.902893267963643</v>
       </c>
       <c r="K8">
-        <v>14.85440575760714</v>
+        <v>14.3434726037781</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.0203935027925</v>
       </c>
       <c r="M8">
-        <v>11.7130483256915</v>
+        <v>9.185266523697432</v>
       </c>
       <c r="N8">
-        <v>8.53041731624136</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.78987986542028</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.585313244050543</v>
       </c>
       <c r="Q8">
-        <v>13.91410619012053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.54032400197629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.15384074046215</v>
+        <v>16.05001047634716</v>
       </c>
       <c r="C9">
-        <v>9.351791421474054</v>
+        <v>9.106617326378798</v>
       </c>
       <c r="D9">
-        <v>5.990572440807384</v>
+        <v>6.085882709451774</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.255027088753</v>
+        <v>16.64895962640893</v>
       </c>
       <c r="G9">
-        <v>20.78195032396796</v>
+        <v>19.43823039057586</v>
       </c>
       <c r="H9">
-        <v>1.832876745715544</v>
+        <v>1.77045953043131</v>
       </c>
       <c r="I9">
-        <v>2.682676540030942</v>
+        <v>2.611841968991053</v>
       </c>
       <c r="J9">
-        <v>8.641457904868984</v>
+        <v>8.810746721268195</v>
       </c>
       <c r="K9">
-        <v>14.67811947494791</v>
+        <v>14.08860585545988</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.66275693985026</v>
       </c>
       <c r="M9">
-        <v>13.06511138917507</v>
+        <v>9.168547335846865</v>
       </c>
       <c r="N9">
-        <v>9.37265984245612</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.17413447929204</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.408798489033929</v>
       </c>
       <c r="Q9">
-        <v>13.87355166672594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.4153948738099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.50463395390106</v>
+        <v>17.36864645762765</v>
       </c>
       <c r="C10">
-        <v>9.560780290031035</v>
+        <v>9.405178264195726</v>
       </c>
       <c r="D10">
-        <v>6.374135302268918</v>
+        <v>6.513641812927203</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.57598156461695</v>
+        <v>16.81671409801428</v>
       </c>
       <c r="G10">
-        <v>20.99888529820766</v>
+        <v>19.93938614181384</v>
       </c>
       <c r="H10">
-        <v>1.584083568738103</v>
+        <v>1.607429433257374</v>
       </c>
       <c r="I10">
-        <v>2.496872187658298</v>
+        <v>2.550946406960593</v>
       </c>
       <c r="J10">
-        <v>8.545671687367326</v>
+        <v>8.569953702739252</v>
       </c>
       <c r="K10">
-        <v>14.48299658949254</v>
+        <v>13.81276798988844</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.34161391383773</v>
       </c>
       <c r="M10">
-        <v>13.9999541438646</v>
+        <v>9.153285429515465</v>
       </c>
       <c r="N10">
-        <v>9.760434664261744</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.12313225090729</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.784605721605157</v>
       </c>
       <c r="Q10">
-        <v>13.7972742022595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.23521091866981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.80952734389589</v>
+        <v>17.69480535695313</v>
       </c>
       <c r="C11">
-        <v>10.04780338982328</v>
+        <v>9.982892984749745</v>
       </c>
       <c r="D11">
-        <v>6.731059061124549</v>
+        <v>6.900501674890082</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.85016049774152</v>
+        <v>16.00923931261074</v>
       </c>
       <c r="G11">
-        <v>19.58539016656597</v>
+        <v>19.4726957060164</v>
       </c>
       <c r="H11">
-        <v>2.684959508929758</v>
+        <v>2.663617093634143</v>
       </c>
       <c r="I11">
-        <v>2.558170954915835</v>
+        <v>2.606307137699798</v>
       </c>
       <c r="J11">
-        <v>8.261816634046149</v>
+        <v>8.079711220015739</v>
       </c>
       <c r="K11">
-        <v>13.73876717473241</v>
+        <v>13.10560840296129</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.82088767493708</v>
       </c>
       <c r="M11">
-        <v>14.61493400832685</v>
+        <v>8.637367878929227</v>
       </c>
       <c r="N11">
-        <v>8.37680964164989</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.71564478480213</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.398703829347419</v>
       </c>
       <c r="Q11">
-        <v>13.14617763186889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.54823399314999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.80192733857837</v>
+        <v>17.70943557367906</v>
       </c>
       <c r="C12">
-        <v>10.52233614828964</v>
+        <v>10.48635800754665</v>
       </c>
       <c r="D12">
-        <v>6.951659678712406</v>
+        <v>7.127622955753998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.18815037923014</v>
+        <v>15.35435683647398</v>
       </c>
       <c r="G12">
-        <v>18.39068717075048</v>
+        <v>18.75477480508603</v>
       </c>
       <c r="H12">
-        <v>4.10897986205558</v>
+        <v>4.095236063725329</v>
       </c>
       <c r="I12">
-        <v>2.563856740620595</v>
+        <v>2.610173469147883</v>
       </c>
       <c r="J12">
-        <v>8.05237665911147</v>
+        <v>7.85439779953307</v>
       </c>
       <c r="K12">
-        <v>13.20826434852155</v>
+        <v>12.64598954806329</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.52007298602589</v>
       </c>
       <c r="M12">
-        <v>14.94050187685694</v>
+        <v>8.249495284384304</v>
       </c>
       <c r="N12">
-        <v>7.19558716347515</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.02170609877376</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.218547510121974</v>
       </c>
       <c r="Q12">
-        <v>12.63605881085558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.06280281031638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54392784165127</v>
+        <v>17.47492747143337</v>
       </c>
       <c r="C13">
-        <v>11.00763747278655</v>
+        <v>10.97280924666469</v>
       </c>
       <c r="D13">
-        <v>7.09148976676618</v>
+        <v>7.248895720971979</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15.49455538609172</v>
+        <v>14.76606263412327</v>
       </c>
       <c r="G13">
-        <v>17.22968540041553</v>
+        <v>17.5580419475083</v>
       </c>
       <c r="H13">
-        <v>5.550986604214773</v>
+        <v>5.539446062286945</v>
       </c>
       <c r="I13">
-        <v>2.53306362348894</v>
+        <v>2.582873223180539</v>
       </c>
       <c r="J13">
-        <v>7.879265219796008</v>
+        <v>7.79055142930588</v>
       </c>
       <c r="K13">
-        <v>12.79201518034049</v>
+        <v>12.33239821335298</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.3353177010091</v>
       </c>
       <c r="M13">
-        <v>15.07832399560034</v>
+        <v>7.939785314877149</v>
       </c>
       <c r="N13">
-        <v>6.120946808264207</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.14278898503263</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.148772093345952</v>
       </c>
       <c r="Q13">
-        <v>12.18210759180997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.69648313118849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.24455089248935</v>
+        <v>17.19298738891571</v>
       </c>
       <c r="C14">
-        <v>11.36349016418087</v>
+        <v>11.31738974258042</v>
       </c>
       <c r="D14">
-        <v>7.155746829721113</v>
+        <v>7.288527691166152</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>14.98813938896531</v>
+        <v>14.37508368427224</v>
       </c>
       <c r="G14">
-        <v>16.42927439420197</v>
+        <v>16.51601850147299</v>
       </c>
       <c r="H14">
-        <v>6.56674995587472</v>
+        <v>6.555568350889206</v>
       </c>
       <c r="I14">
-        <v>2.506537314147102</v>
+        <v>2.551743174495289</v>
       </c>
       <c r="J14">
-        <v>7.77489698119412</v>
+        <v>7.799339352505215</v>
       </c>
       <c r="K14">
-        <v>12.56006091289686</v>
+        <v>12.17812932658713</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.25013424941757</v>
       </c>
       <c r="M14">
-        <v>15.09310015557788</v>
+        <v>7.766007408061442</v>
       </c>
       <c r="N14">
-        <v>5.470428080681961</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.14675735483878</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.503802311202135</v>
       </c>
       <c r="Q14">
-        <v>11.89087321636818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.48967626054822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.11416915831007</v>
+        <v>17.06737610843753</v>
       </c>
       <c r="C15">
-        <v>11.44494496187503</v>
+        <v>11.39453809657113</v>
       </c>
       <c r="D15">
-        <v>7.155591156303649</v>
+        <v>7.277428414651325</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>14.85239385682161</v>
+        <v>14.28515143900458</v>
       </c>
       <c r="G15">
-        <v>16.23246765337846</v>
+        <v>16.17331472670125</v>
       </c>
       <c r="H15">
-        <v>6.80245005589294</v>
+        <v>6.790982649182744</v>
       </c>
       <c r="I15">
-        <v>2.529056480358392</v>
+        <v>2.539506953901921</v>
       </c>
       <c r="J15">
-        <v>7.755577874045884</v>
+        <v>7.824272757993003</v>
       </c>
       <c r="K15">
-        <v>12.52080313986297</v>
+        <v>12.16104853799508</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.24200223665581</v>
       </c>
       <c r="M15">
-        <v>15.05797663934479</v>
+        <v>7.737003328882526</v>
       </c>
       <c r="N15">
-        <v>5.329693376074096</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.10948253021825</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.365337819774247</v>
       </c>
       <c r="Q15">
-        <v>11.82802059393183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.45722272661926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.59080464621085</v>
+        <v>16.54877311621189</v>
       </c>
       <c r="C16">
-        <v>11.2607813059602</v>
+        <v>11.19980451180657</v>
       </c>
       <c r="D16">
-        <v>6.979005167361328</v>
+        <v>7.060005931512427</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>14.8233501045189</v>
+        <v>14.40069593124118</v>
       </c>
       <c r="G16">
-        <v>16.33830309419557</v>
+        <v>15.59167697399241</v>
       </c>
       <c r="H16">
-        <v>6.597115276663988</v>
+        <v>6.581777027591013</v>
       </c>
       <c r="I16">
-        <v>2.618156112813479</v>
+        <v>2.565683316287475</v>
       </c>
       <c r="J16">
-        <v>7.829277818708757</v>
+        <v>8.060370780384318</v>
       </c>
       <c r="K16">
-        <v>12.68724753032338</v>
+        <v>12.35870007536466</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.3690819187698</v>
       </c>
       <c r="M16">
-        <v>14.65765676842761</v>
+        <v>7.865815874385502</v>
       </c>
       <c r="N16">
-        <v>5.333560209025283</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.71367543097938</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.377367593804492</v>
       </c>
       <c r="Q16">
-        <v>11.94603334923242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.65725948285701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.34754567784241</v>
+        <v>16.30049340038138</v>
       </c>
       <c r="C17">
-        <v>10.9189810316879</v>
+        <v>10.85136995065003</v>
       </c>
       <c r="D17">
-        <v>6.805496968115861</v>
+        <v>6.873254320355198</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.07472435523622</v>
+        <v>14.68563093822349</v>
       </c>
       <c r="G17">
-        <v>16.84317283948303</v>
+        <v>15.79097947285844</v>
       </c>
       <c r="H17">
-        <v>5.867885518248777</v>
+        <v>5.848488869857663</v>
       </c>
       <c r="I17">
-        <v>2.666584066906037</v>
+        <v>2.608251194742885</v>
       </c>
       <c r="J17">
-        <v>7.940345589227013</v>
+        <v>8.237745155867</v>
       </c>
       <c r="K17">
-        <v>12.93098143513738</v>
+        <v>12.58947742528915</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.52455603242917</v>
       </c>
       <c r="M17">
-        <v>14.33626810348812</v>
+        <v>8.042309152736513</v>
       </c>
       <c r="N17">
-        <v>5.661009563619964</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.40045513190896</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.707199953321259</v>
       </c>
       <c r="Q17">
-        <v>12.18862228958095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.91262248634301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.33238518661177</v>
+        <v>16.26958233720926</v>
       </c>
       <c r="C18">
-        <v>10.4315313187314</v>
+        <v>10.35445255279619</v>
       </c>
       <c r="D18">
-        <v>6.614195397883041</v>
+        <v>6.684819335526777</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.60829281165636</v>
+        <v>15.18669910980897</v>
       </c>
       <c r="G18">
-        <v>17.78057333785081</v>
+        <v>16.54281072455927</v>
       </c>
       <c r="H18">
-        <v>4.629567678376644</v>
+        <v>4.604347794323954</v>
       </c>
       <c r="I18">
-        <v>2.671940429303917</v>
+        <v>2.610002002438686</v>
       </c>
       <c r="J18">
-        <v>8.102195955921314</v>
+        <v>8.411565083487318</v>
       </c>
       <c r="K18">
-        <v>13.30193411698515</v>
+        <v>12.91207817519585</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.75185747117749</v>
       </c>
       <c r="M18">
-        <v>14.04822204837783</v>
+        <v>8.301630914383479</v>
       </c>
       <c r="N18">
-        <v>6.425955512183931</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.12627842879674</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.469629152155437</v>
       </c>
       <c r="Q18">
-        <v>12.58115949920796</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.27497081813544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.49073016963265</v>
+        <v>16.40452757198433</v>
       </c>
       <c r="C19">
-        <v>9.963797548783091</v>
+        <v>9.863895663051158</v>
       </c>
       <c r="D19">
-        <v>6.435736912730951</v>
+        <v>6.518650343177655</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.29057568966753</v>
+        <v>15.79656568707806</v>
       </c>
       <c r="G19">
-        <v>18.95007203876186</v>
+        <v>17.57226940479955</v>
       </c>
       <c r="H19">
-        <v>3.168898384193574</v>
+        <v>3.134174641687407</v>
       </c>
       <c r="I19">
-        <v>2.659511951292933</v>
+        <v>2.600298310049258</v>
       </c>
       <c r="J19">
-        <v>8.288078833679569</v>
+        <v>8.577575790123404</v>
       </c>
       <c r="K19">
-        <v>13.76168587093806</v>
+        <v>13.29674275278179</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.02780986242762</v>
       </c>
       <c r="M19">
-        <v>13.82383550245646</v>
+        <v>8.61722880080668</v>
       </c>
       <c r="N19">
-        <v>7.595402114278416</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.91940433400816</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.633689725086579</v>
       </c>
       <c r="Q19">
-        <v>13.05214416235257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.68822949472164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.1395241126506</v>
+        <v>17.01001820625328</v>
       </c>
       <c r="C20">
-        <v>9.526615251342641</v>
+        <v>9.364075811915679</v>
       </c>
       <c r="D20">
-        <v>6.289820500104942</v>
+        <v>6.408547225913614</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.42131032529453</v>
+        <v>16.74690199878983</v>
       </c>
       <c r="G20">
-        <v>20.81957597258374</v>
+        <v>19.44092618479355</v>
       </c>
       <c r="H20">
-        <v>1.649707990219309</v>
+        <v>1.600937356814473</v>
       </c>
       <c r="I20">
-        <v>2.561137795282519</v>
+        <v>2.520405237345353</v>
       </c>
       <c r="J20">
-        <v>8.550807612600439</v>
+        <v>8.710527294466097</v>
       </c>
       <c r="K20">
-        <v>14.47983367782952</v>
+        <v>13.85549567412617</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.40364583323273</v>
       </c>
       <c r="M20">
-        <v>13.77659431646182</v>
+        <v>9.128750471313694</v>
       </c>
       <c r="N20">
-        <v>9.650853309295018</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.89920141387893</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.678641412430213</v>
       </c>
       <c r="Q20">
-        <v>13.76660287178371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.26416670443321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.17713884481432</v>
+        <v>18.03053245391495</v>
       </c>
       <c r="C21">
-        <v>9.631206667615995</v>
+        <v>9.485285629624068</v>
       </c>
       <c r="D21">
-        <v>6.53887933544469</v>
+        <v>6.741666162595104</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.84422543918424</v>
+        <v>16.81295680940207</v>
       </c>
       <c r="G21">
-        <v>21.29354268169281</v>
+        <v>21.42516904290514</v>
       </c>
       <c r="H21">
-        <v>1.707538628489865</v>
+        <v>1.736005947262454</v>
       </c>
       <c r="I21">
-        <v>2.620636093860317</v>
+        <v>2.661974721677733</v>
       </c>
       <c r="J21">
-        <v>8.5280329463098</v>
+        <v>8.127982232707367</v>
       </c>
       <c r="K21">
-        <v>14.46483253326334</v>
+        <v>13.65238807512733</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.17219582665621</v>
       </c>
       <c r="M21">
-        <v>14.42674368365112</v>
+        <v>9.139443287557235</v>
       </c>
       <c r="N21">
-        <v>10.22213299294754</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.54686628086474</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.23808032268292</v>
       </c>
       <c r="Q21">
-        <v>13.83665727785877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.08260440146979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.8165814566009</v>
+        <v>18.66177874204168</v>
       </c>
       <c r="C22">
-        <v>9.707933459541961</v>
+        <v>9.573791466000333</v>
       </c>
       <c r="D22">
-        <v>6.701677951572382</v>
+        <v>6.960377945226161</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.10144908686954</v>
+        <v>16.82571792326323</v>
       </c>
       <c r="G22">
-        <v>21.57092465562047</v>
+        <v>22.82909246774433</v>
       </c>
       <c r="H22">
-        <v>1.841526438622044</v>
+        <v>1.857859180821147</v>
       </c>
       <c r="I22">
-        <v>2.718796037693753</v>
+        <v>2.744176635774762</v>
       </c>
       <c r="J22">
-        <v>8.509480145952766</v>
+        <v>7.79934681961825</v>
       </c>
       <c r="K22">
-        <v>14.4410507620753</v>
+        <v>13.49965790492059</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.01217462145494</v>
       </c>
       <c r="M22">
-        <v>14.84180001867296</v>
+        <v>9.138274293282684</v>
       </c>
       <c r="N22">
-        <v>10.49131318165501</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.95853555801698</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.50031504177387</v>
       </c>
       <c r="Q22">
-        <v>13.87198446280354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.94216427195138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.48514236113633</v>
+        <v>18.33291721067049</v>
       </c>
       <c r="C23">
-        <v>9.660076551915799</v>
+        <v>9.520600489310123</v>
       </c>
       <c r="D23">
-        <v>6.61046516368929</v>
+        <v>6.83266374304606</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.98713905765486</v>
+        <v>16.8718475150546</v>
       </c>
       <c r="G23">
-        <v>21.4629315394794</v>
+        <v>21.93091951589484</v>
       </c>
       <c r="H23">
-        <v>1.771100021319343</v>
+        <v>1.794380347486188</v>
       </c>
       <c r="I23">
-        <v>2.661254538916546</v>
+        <v>2.694260123039005</v>
       </c>
       <c r="J23">
-        <v>8.525880324537745</v>
+        <v>8.016261796993176</v>
       </c>
       <c r="K23">
-        <v>14.47230751160929</v>
+        <v>13.61216448964463</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.1167892663348</v>
       </c>
       <c r="M23">
-        <v>14.61630328390734</v>
+        <v>9.165999960207158</v>
       </c>
       <c r="N23">
-        <v>10.34892826214444</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.73702243319205</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.3618705399282</v>
       </c>
       <c r="Q23">
-        <v>13.86963211846114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.05432748299512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.1586674273971</v>
+        <v>17.02663763222261</v>
       </c>
       <c r="C24">
-        <v>9.487942082205695</v>
+        <v>9.311022117616712</v>
       </c>
       <c r="D24">
-        <v>6.261202838349917</v>
+        <v>6.380436145806008</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.52939515877361</v>
+        <v>16.84820535426759</v>
       </c>
       <c r="G24">
-        <v>21.01189038569553</v>
+        <v>19.60805307042044</v>
       </c>
       <c r="H24">
-        <v>1.625835492344555</v>
+        <v>1.576923423325412</v>
       </c>
       <c r="I24">
-        <v>2.539467424380243</v>
+        <v>2.509946017082517</v>
       </c>
       <c r="J24">
-        <v>8.583216390036398</v>
+        <v>8.742816074977972</v>
       </c>
       <c r="K24">
-        <v>14.56925037552606</v>
+        <v>13.93387452473333</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.46059672953868</v>
       </c>
       <c r="M24">
-        <v>13.73842768220893</v>
+        <v>9.191663241657841</v>
       </c>
       <c r="N24">
-        <v>9.790874095543076</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.86277025245007</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.818376417586583</v>
       </c>
       <c r="Q24">
-        <v>13.84730648115776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.33823134703685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.59904886205211</v>
+        <v>15.5099023080687</v>
       </c>
       <c r="C25">
-        <v>9.296751180681838</v>
+        <v>9.027285372376628</v>
       </c>
       <c r="D25">
-        <v>5.86025014807999</v>
+        <v>5.939710589719992</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.06524454079274</v>
+        <v>16.51295460477938</v>
       </c>
       <c r="G25">
-        <v>20.57742670623125</v>
+        <v>19.186582495065</v>
       </c>
       <c r="H25">
-        <v>1.943049442029444</v>
+        <v>1.873229679938756</v>
       </c>
       <c r="I25">
-        <v>2.78441082404231</v>
+        <v>2.707442347891491</v>
       </c>
       <c r="J25">
-        <v>8.657857938772691</v>
+        <v>8.864761389060078</v>
       </c>
       <c r="K25">
-        <v>14.69339666693484</v>
+        <v>14.13625564739327</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.7426675550185</v>
       </c>
       <c r="M25">
-        <v>12.72309289568883</v>
+        <v>9.143730450415472</v>
       </c>
       <c r="N25">
-        <v>9.151734541110422</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.82508528473909</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.192816937349715</v>
       </c>
       <c r="Q25">
-        <v>13.85264530391286</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.43116166655989</v>
       </c>
     </row>
   </sheetData>
